--- a/lottery/file/彩票设计.xlsx
+++ b/lottery/file/彩票设计.xlsx
@@ -24,7 +24,6 @@
     <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -1156,6 +1155,171 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1185,171 +1349,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2329,7 +2328,7 @@
   <dimension ref="B1:BD31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S8" sqref="S8:AF8"/>
+      <selection activeCell="F13" sqref="F13:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2339,1549 +2338,1549 @@
   <sheetData>
     <row r="1" spans="2:56" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:56" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="50" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="50" t="s">
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="50" t="s">
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51"/>
-      <c r="BB2" s="51"/>
-      <c r="BC2" s="51"/>
-      <c r="BD2" s="52"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="63"/>
+      <c r="AQ2" s="63"/>
+      <c r="AR2" s="63"/>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="63"/>
+      <c r="AU2" s="63"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="63"/>
+      <c r="AZ2" s="63"/>
+      <c r="BA2" s="63"/>
+      <c r="BB2" s="63"/>
+      <c r="BC2" s="63"/>
+      <c r="BD2" s="64"/>
     </row>
     <row r="3" spans="2:56" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="62" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="62" t="s">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="53" t="s">
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="54"/>
-      <c r="AQ3" s="54"/>
-      <c r="AR3" s="54"/>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="54"/>
-      <c r="AY3" s="54"/>
-      <c r="AZ3" s="54"/>
-      <c r="BA3" s="54"/>
-      <c r="BB3" s="54"/>
-      <c r="BC3" s="54"/>
-      <c r="BD3" s="55"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="30"/>
+      <c r="AQ3" s="30"/>
+      <c r="AR3" s="30"/>
+      <c r="AS3" s="30"/>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="30"/>
+      <c r="AX3" s="30"/>
+      <c r="AY3" s="30"/>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="30"/>
+      <c r="BC3" s="30"/>
+      <c r="BD3" s="31"/>
     </row>
     <row r="4" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="39" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="39" t="s">
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="39" t="s">
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="AH4" s="84"/>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="84"/>
-      <c r="AK4" s="84"/>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="84"/>
-      <c r="AO4" s="84"/>
-      <c r="AP4" s="84"/>
-      <c r="AQ4" s="84"/>
-      <c r="AR4" s="84"/>
-      <c r="AS4" s="84"/>
-      <c r="AT4" s="84"/>
-      <c r="AU4" s="84"/>
-      <c r="AV4" s="84"/>
-      <c r="AW4" s="84"/>
-      <c r="AX4" s="84"/>
-      <c r="AY4" s="84"/>
-      <c r="AZ4" s="84"/>
-      <c r="BA4" s="84"/>
-      <c r="BB4" s="84"/>
-      <c r="BC4" s="84"/>
-      <c r="BD4" s="85"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36"/>
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="36"/>
+      <c r="AX4" s="36"/>
+      <c r="AY4" s="36"/>
+      <c r="AZ4" s="36"/>
+      <c r="BA4" s="36"/>
+      <c r="BB4" s="36"/>
+      <c r="BC4" s="36"/>
+      <c r="BD4" s="37"/>
     </row>
     <row r="5" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="39" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="39" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="39" t="s">
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="AH5" s="84"/>
-      <c r="AI5" s="84"/>
-      <c r="AJ5" s="84"/>
-      <c r="AK5" s="84"/>
-      <c r="AL5" s="84"/>
-      <c r="AM5" s="84"/>
-      <c r="AN5" s="84"/>
-      <c r="AO5" s="84"/>
-      <c r="AP5" s="84"/>
-      <c r="AQ5" s="84"/>
-      <c r="AR5" s="84"/>
-      <c r="AS5" s="84"/>
-      <c r="AT5" s="84"/>
-      <c r="AU5" s="84"/>
-      <c r="AV5" s="84"/>
-      <c r="AW5" s="84"/>
-      <c r="AX5" s="84"/>
-      <c r="AY5" s="84"/>
-      <c r="AZ5" s="84"/>
-      <c r="BA5" s="84"/>
-      <c r="BB5" s="84"/>
-      <c r="BC5" s="84"/>
-      <c r="BD5" s="85"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="36"/>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="36"/>
+      <c r="AS5" s="36"/>
+      <c r="AT5" s="36"/>
+      <c r="AU5" s="36"/>
+      <c r="AV5" s="36"/>
+      <c r="AW5" s="36"/>
+      <c r="AX5" s="36"/>
+      <c r="AY5" s="36"/>
+      <c r="AZ5" s="36"/>
+      <c r="BA5" s="36"/>
+      <c r="BB5" s="36"/>
+      <c r="BC5" s="36"/>
+      <c r="BD5" s="37"/>
     </row>
     <row r="6" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="39" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="39" t="s">
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="41"/>
-      <c r="AG6" s="39" t="s">
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="AH6" s="84"/>
-      <c r="AI6" s="84"/>
-      <c r="AJ6" s="84"/>
-      <c r="AK6" s="84"/>
-      <c r="AL6" s="84"/>
-      <c r="AM6" s="84"/>
-      <c r="AN6" s="84"/>
-      <c r="AO6" s="84"/>
-      <c r="AP6" s="84"/>
-      <c r="AQ6" s="84"/>
-      <c r="AR6" s="84"/>
-      <c r="AS6" s="84"/>
-      <c r="AT6" s="84"/>
-      <c r="AU6" s="84"/>
-      <c r="AV6" s="84"/>
-      <c r="AW6" s="84"/>
-      <c r="AX6" s="84"/>
-      <c r="AY6" s="84"/>
-      <c r="AZ6" s="84"/>
-      <c r="BA6" s="84"/>
-      <c r="BB6" s="84"/>
-      <c r="BC6" s="84"/>
-      <c r="BD6" s="85"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="36"/>
+      <c r="AL6" s="36"/>
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="36"/>
+      <c r="AP6" s="36"/>
+      <c r="AQ6" s="36"/>
+      <c r="AR6" s="36"/>
+      <c r="AS6" s="36"/>
+      <c r="AT6" s="36"/>
+      <c r="AU6" s="36"/>
+      <c r="AV6" s="36"/>
+      <c r="AW6" s="36"/>
+      <c r="AX6" s="36"/>
+      <c r="AY6" s="36"/>
+      <c r="AZ6" s="36"/>
+      <c r="BA6" s="36"/>
+      <c r="BB6" s="36"/>
+      <c r="BC6" s="36"/>
+      <c r="BD6" s="37"/>
     </row>
     <row r="7" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="69"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="39" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="39" t="s">
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="40"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="39" t="s">
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="AH7" s="84"/>
-      <c r="AI7" s="84"/>
-      <c r="AJ7" s="84"/>
-      <c r="AK7" s="84"/>
-      <c r="AL7" s="84"/>
-      <c r="AM7" s="84"/>
-      <c r="AN7" s="84"/>
-      <c r="AO7" s="84"/>
-      <c r="AP7" s="84"/>
-      <c r="AQ7" s="84"/>
-      <c r="AR7" s="84"/>
-      <c r="AS7" s="84"/>
-      <c r="AT7" s="84"/>
-      <c r="AU7" s="84"/>
-      <c r="AV7" s="84"/>
-      <c r="AW7" s="84"/>
-      <c r="AX7" s="84"/>
-      <c r="AY7" s="84"/>
-      <c r="AZ7" s="84"/>
-      <c r="BA7" s="84"/>
-      <c r="BB7" s="84"/>
-      <c r="BC7" s="84"/>
-      <c r="BD7" s="85"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="36"/>
+      <c r="AJ7" s="36"/>
+      <c r="AK7" s="36"/>
+      <c r="AL7" s="36"/>
+      <c r="AM7" s="36"/>
+      <c r="AN7" s="36"/>
+      <c r="AO7" s="36"/>
+      <c r="AP7" s="36"/>
+      <c r="AQ7" s="36"/>
+      <c r="AR7" s="36"/>
+      <c r="AS7" s="36"/>
+      <c r="AT7" s="36"/>
+      <c r="AU7" s="36"/>
+      <c r="AV7" s="36"/>
+      <c r="AW7" s="36"/>
+      <c r="AX7" s="36"/>
+      <c r="AY7" s="36"/>
+      <c r="AZ7" s="36"/>
+      <c r="BA7" s="36"/>
+      <c r="BB7" s="36"/>
+      <c r="BC7" s="36"/>
+      <c r="BD7" s="37"/>
     </row>
     <row r="8" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="42" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="42" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="43"/>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="42" t="s">
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="AH8" s="86"/>
-      <c r="AI8" s="86"/>
-      <c r="AJ8" s="86"/>
-      <c r="AK8" s="86"/>
-      <c r="AL8" s="86"/>
-      <c r="AM8" s="86"/>
-      <c r="AN8" s="86"/>
-      <c r="AO8" s="86"/>
-      <c r="AP8" s="86"/>
-      <c r="AQ8" s="86"/>
-      <c r="AR8" s="86"/>
-      <c r="AS8" s="86"/>
-      <c r="AT8" s="86"/>
-      <c r="AU8" s="86"/>
-      <c r="AV8" s="86"/>
-      <c r="AW8" s="86"/>
-      <c r="AX8" s="86"/>
-      <c r="AY8" s="86"/>
-      <c r="AZ8" s="86"/>
-      <c r="BA8" s="86"/>
-      <c r="BB8" s="86"/>
-      <c r="BC8" s="86"/>
-      <c r="BD8" s="87"/>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="27"/>
+      <c r="AM8" s="27"/>
+      <c r="AN8" s="27"/>
+      <c r="AO8" s="27"/>
+      <c r="AP8" s="27"/>
+      <c r="AQ8" s="27"/>
+      <c r="AR8" s="27"/>
+      <c r="AS8" s="27"/>
+      <c r="AT8" s="27"/>
+      <c r="AU8" s="27"/>
+      <c r="AV8" s="27"/>
+      <c r="AW8" s="27"/>
+      <c r="AX8" s="27"/>
+      <c r="AY8" s="27"/>
+      <c r="AZ8" s="27"/>
+      <c r="BA8" s="27"/>
+      <c r="BB8" s="27"/>
+      <c r="BC8" s="27"/>
+      <c r="BD8" s="28"/>
     </row>
     <row r="9" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="46" t="s">
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="46" t="s">
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="54"/>
-      <c r="AJ9" s="54"/>
-      <c r="AK9" s="54"/>
-      <c r="AL9" s="54"/>
-      <c r="AM9" s="54"/>
-      <c r="AN9" s="54"/>
-      <c r="AO9" s="54"/>
-      <c r="AP9" s="54"/>
-      <c r="AQ9" s="54"/>
-      <c r="AR9" s="54"/>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="54"/>
-      <c r="AW9" s="54"/>
-      <c r="AX9" s="54"/>
-      <c r="AY9" s="54"/>
-      <c r="AZ9" s="54"/>
-      <c r="BA9" s="54"/>
-      <c r="BB9" s="54"/>
-      <c r="BC9" s="54"/>
-      <c r="BD9" s="55"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30"/>
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30"/>
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="30"/>
+      <c r="AX9" s="30"/>
+      <c r="AY9" s="30"/>
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30"/>
+      <c r="BB9" s="30"/>
+      <c r="BC9" s="30"/>
+      <c r="BD9" s="31"/>
     </row>
     <row r="10" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="49" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="49" t="s">
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="39"/>
-      <c r="AH10" s="84"/>
-      <c r="AI10" s="84"/>
-      <c r="AJ10" s="84"/>
-      <c r="AK10" s="84"/>
-      <c r="AL10" s="84"/>
-      <c r="AM10" s="84"/>
-      <c r="AN10" s="84"/>
-      <c r="AO10" s="84"/>
-      <c r="AP10" s="84"/>
-      <c r="AQ10" s="84"/>
-      <c r="AR10" s="84"/>
-      <c r="AS10" s="84"/>
-      <c r="AT10" s="84"/>
-      <c r="AU10" s="84"/>
-      <c r="AV10" s="84"/>
-      <c r="AW10" s="84"/>
-      <c r="AX10" s="84"/>
-      <c r="AY10" s="84"/>
-      <c r="AZ10" s="84"/>
-      <c r="BA10" s="84"/>
-      <c r="BB10" s="84"/>
-      <c r="BC10" s="84"/>
-      <c r="BD10" s="85"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="36"/>
+      <c r="AI10" s="36"/>
+      <c r="AJ10" s="36"/>
+      <c r="AK10" s="36"/>
+      <c r="AL10" s="36"/>
+      <c r="AM10" s="36"/>
+      <c r="AN10" s="36"/>
+      <c r="AO10" s="36"/>
+      <c r="AP10" s="36"/>
+      <c r="AQ10" s="36"/>
+      <c r="AR10" s="36"/>
+      <c r="AS10" s="36"/>
+      <c r="AT10" s="36"/>
+      <c r="AU10" s="36"/>
+      <c r="AV10" s="36"/>
+      <c r="AW10" s="36"/>
+      <c r="AX10" s="36"/>
+      <c r="AY10" s="36"/>
+      <c r="AZ10" s="36"/>
+      <c r="BA10" s="36"/>
+      <c r="BB10" s="36"/>
+      <c r="BC10" s="36"/>
+      <c r="BD10" s="37"/>
     </row>
     <row r="11" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="45" t="s">
+      <c r="B11" s="59"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="45" t="s">
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="43"/>
-      <c r="AE11" s="43"/>
-      <c r="AF11" s="44"/>
-      <c r="AG11" s="42"/>
-      <c r="AH11" s="86"/>
-      <c r="AI11" s="86"/>
-      <c r="AJ11" s="86"/>
-      <c r="AK11" s="86"/>
-      <c r="AL11" s="86"/>
-      <c r="AM11" s="86"/>
-      <c r="AN11" s="86"/>
-      <c r="AO11" s="86"/>
-      <c r="AP11" s="86"/>
-      <c r="AQ11" s="86"/>
-      <c r="AR11" s="86"/>
-      <c r="AS11" s="86"/>
-      <c r="AT11" s="86"/>
-      <c r="AU11" s="86"/>
-      <c r="AV11" s="86"/>
-      <c r="AW11" s="86"/>
-      <c r="AX11" s="86"/>
-      <c r="AY11" s="86"/>
-      <c r="AZ11" s="86"/>
-      <c r="BA11" s="86"/>
-      <c r="BB11" s="86"/>
-      <c r="BC11" s="86"/>
-      <c r="BD11" s="87"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27"/>
+      <c r="AO11" s="27"/>
+      <c r="AP11" s="27"/>
+      <c r="AQ11" s="27"/>
+      <c r="AR11" s="27"/>
+      <c r="AS11" s="27"/>
+      <c r="AT11" s="27"/>
+      <c r="AU11" s="27"/>
+      <c r="AV11" s="27"/>
+      <c r="AW11" s="27"/>
+      <c r="AX11" s="27"/>
+      <c r="AY11" s="27"/>
+      <c r="AZ11" s="27"/>
+      <c r="BA11" s="27"/>
+      <c r="BB11" s="27"/>
+      <c r="BC11" s="27"/>
+      <c r="BD11" s="28"/>
     </row>
     <row r="12" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="59" t="s">
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="46" t="s">
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="47"/>
-      <c r="AD12" s="47"/>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="46" t="s">
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="AH12" s="47"/>
-      <c r="AI12" s="47"/>
-      <c r="AJ12" s="47"/>
-      <c r="AK12" s="47"/>
-      <c r="AL12" s="47"/>
-      <c r="AM12" s="47"/>
-      <c r="AN12" s="47"/>
-      <c r="AO12" s="47"/>
-      <c r="AP12" s="47"/>
-      <c r="AQ12" s="47"/>
-      <c r="AR12" s="47"/>
-      <c r="AS12" s="47"/>
-      <c r="AT12" s="47"/>
-      <c r="AU12" s="47"/>
-      <c r="AV12" s="47"/>
-      <c r="AW12" s="47"/>
-      <c r="AX12" s="47"/>
-      <c r="AY12" s="47"/>
-      <c r="AZ12" s="47"/>
-      <c r="BA12" s="47"/>
-      <c r="BB12" s="47"/>
-      <c r="BC12" s="47"/>
-      <c r="BD12" s="48"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="39"/>
+      <c r="AM12" s="39"/>
+      <c r="AN12" s="39"/>
+      <c r="AO12" s="39"/>
+      <c r="AP12" s="39"/>
+      <c r="AQ12" s="39"/>
+      <c r="AR12" s="39"/>
+      <c r="AS12" s="39"/>
+      <c r="AT12" s="39"/>
+      <c r="AU12" s="39"/>
+      <c r="AV12" s="39"/>
+      <c r="AW12" s="39"/>
+      <c r="AX12" s="39"/>
+      <c r="AY12" s="39"/>
+      <c r="AZ12" s="39"/>
+      <c r="BA12" s="39"/>
+      <c r="BB12" s="39"/>
+      <c r="BC12" s="39"/>
+      <c r="BD12" s="40"/>
     </row>
     <row r="13" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="75"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="56" t="s">
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="49" t="s">
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="40"/>
-      <c r="AD13" s="40"/>
-      <c r="AE13" s="40"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="49" t="s">
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="AH13" s="40"/>
-      <c r="AI13" s="40"/>
-      <c r="AJ13" s="40"/>
-      <c r="AK13" s="40"/>
-      <c r="AL13" s="40"/>
-      <c r="AM13" s="40"/>
-      <c r="AN13" s="40"/>
-      <c r="AO13" s="40"/>
-      <c r="AP13" s="40"/>
-      <c r="AQ13" s="40"/>
-      <c r="AR13" s="40"/>
-      <c r="AS13" s="40"/>
-      <c r="AT13" s="40"/>
-      <c r="AU13" s="40"/>
-      <c r="AV13" s="40"/>
-      <c r="AW13" s="40"/>
-      <c r="AX13" s="40"/>
-      <c r="AY13" s="40"/>
-      <c r="AZ13" s="40"/>
-      <c r="BA13" s="40"/>
-      <c r="BB13" s="40"/>
-      <c r="BC13" s="40"/>
-      <c r="BD13" s="41"/>
+      <c r="AH13" s="33"/>
+      <c r="AI13" s="33"/>
+      <c r="AJ13" s="33"/>
+      <c r="AK13" s="33"/>
+      <c r="AL13" s="33"/>
+      <c r="AM13" s="33"/>
+      <c r="AN13" s="33"/>
+      <c r="AO13" s="33"/>
+      <c r="AP13" s="33"/>
+      <c r="AQ13" s="33"/>
+      <c r="AR13" s="33"/>
+      <c r="AS13" s="33"/>
+      <c r="AT13" s="33"/>
+      <c r="AU13" s="33"/>
+      <c r="AV13" s="33"/>
+      <c r="AW13" s="33"/>
+      <c r="AX13" s="33"/>
+      <c r="AY13" s="33"/>
+      <c r="AZ13" s="33"/>
+      <c r="BA13" s="33"/>
+      <c r="BB13" s="33"/>
+      <c r="BC13" s="33"/>
+      <c r="BD13" s="34"/>
     </row>
     <row r="14" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="75"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="56" t="s">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="49" t="s">
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="40"/>
-      <c r="AE14" s="40"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="49"/>
-      <c r="AH14" s="40"/>
-      <c r="AI14" s="40"/>
-      <c r="AJ14" s="40"/>
-      <c r="AK14" s="40"/>
-      <c r="AL14" s="40"/>
-      <c r="AM14" s="40"/>
-      <c r="AN14" s="40"/>
-      <c r="AO14" s="40"/>
-      <c r="AP14" s="40"/>
-      <c r="AQ14" s="40"/>
-      <c r="AR14" s="40"/>
-      <c r="AS14" s="40"/>
-      <c r="AT14" s="40"/>
-      <c r="AU14" s="40"/>
-      <c r="AV14" s="40"/>
-      <c r="AW14" s="40"/>
-      <c r="AX14" s="40"/>
-      <c r="AY14" s="40"/>
-      <c r="AZ14" s="40"/>
-      <c r="BA14" s="40"/>
-      <c r="BB14" s="40"/>
-      <c r="BC14" s="40"/>
-      <c r="BD14" s="41"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="33"/>
+      <c r="AI14" s="33"/>
+      <c r="AJ14" s="33"/>
+      <c r="AK14" s="33"/>
+      <c r="AL14" s="33"/>
+      <c r="AM14" s="33"/>
+      <c r="AN14" s="33"/>
+      <c r="AO14" s="33"/>
+      <c r="AP14" s="33"/>
+      <c r="AQ14" s="33"/>
+      <c r="AR14" s="33"/>
+      <c r="AS14" s="33"/>
+      <c r="AT14" s="33"/>
+      <c r="AU14" s="33"/>
+      <c r="AV14" s="33"/>
+      <c r="AW14" s="33"/>
+      <c r="AX14" s="33"/>
+      <c r="AY14" s="33"/>
+      <c r="AZ14" s="33"/>
+      <c r="BA14" s="33"/>
+      <c r="BB14" s="33"/>
+      <c r="BC14" s="33"/>
+      <c r="BD14" s="34"/>
     </row>
     <row r="15" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="75"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="56" t="s">
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="49" t="s">
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="49"/>
-      <c r="AH15" s="40"/>
-      <c r="AI15" s="40"/>
-      <c r="AJ15" s="40"/>
-      <c r="AK15" s="40"/>
-      <c r="AL15" s="40"/>
-      <c r="AM15" s="40"/>
-      <c r="AN15" s="40"/>
-      <c r="AO15" s="40"/>
-      <c r="AP15" s="40"/>
-      <c r="AQ15" s="40"/>
-      <c r="AR15" s="40"/>
-      <c r="AS15" s="40"/>
-      <c r="AT15" s="40"/>
-      <c r="AU15" s="40"/>
-      <c r="AV15" s="40"/>
-      <c r="AW15" s="40"/>
-      <c r="AX15" s="40"/>
-      <c r="AY15" s="40"/>
-      <c r="AZ15" s="40"/>
-      <c r="BA15" s="40"/>
-      <c r="BB15" s="40"/>
-      <c r="BC15" s="40"/>
-      <c r="BD15" s="41"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="33"/>
+      <c r="AI15" s="33"/>
+      <c r="AJ15" s="33"/>
+      <c r="AK15" s="33"/>
+      <c r="AL15" s="33"/>
+      <c r="AM15" s="33"/>
+      <c r="AN15" s="33"/>
+      <c r="AO15" s="33"/>
+      <c r="AP15" s="33"/>
+      <c r="AQ15" s="33"/>
+      <c r="AR15" s="33"/>
+      <c r="AS15" s="33"/>
+      <c r="AT15" s="33"/>
+      <c r="AU15" s="33"/>
+      <c r="AV15" s="33"/>
+      <c r="AW15" s="33"/>
+      <c r="AX15" s="33"/>
+      <c r="AY15" s="33"/>
+      <c r="AZ15" s="33"/>
+      <c r="BA15" s="33"/>
+      <c r="BB15" s="33"/>
+      <c r="BC15" s="33"/>
+      <c r="BD15" s="34"/>
     </row>
     <row r="16" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="75"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="56" t="s">
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="49" t="s">
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="49"/>
-      <c r="AH16" s="40"/>
-      <c r="AI16" s="40"/>
-      <c r="AJ16" s="40"/>
-      <c r="AK16" s="40"/>
-      <c r="AL16" s="40"/>
-      <c r="AM16" s="40"/>
-      <c r="AN16" s="40"/>
-      <c r="AO16" s="40"/>
-      <c r="AP16" s="40"/>
-      <c r="AQ16" s="40"/>
-      <c r="AR16" s="40"/>
-      <c r="AS16" s="40"/>
-      <c r="AT16" s="40"/>
-      <c r="AU16" s="40"/>
-      <c r="AV16" s="40"/>
-      <c r="AW16" s="40"/>
-      <c r="AX16" s="40"/>
-      <c r="AY16" s="40"/>
-      <c r="AZ16" s="40"/>
-      <c r="BA16" s="40"/>
-      <c r="BB16" s="40"/>
-      <c r="BC16" s="40"/>
-      <c r="BD16" s="41"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="32"/>
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="33"/>
+      <c r="AJ16" s="33"/>
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="33"/>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="33"/>
+      <c r="AO16" s="33"/>
+      <c r="AP16" s="33"/>
+      <c r="AQ16" s="33"/>
+      <c r="AR16" s="33"/>
+      <c r="AS16" s="33"/>
+      <c r="AT16" s="33"/>
+      <c r="AU16" s="33"/>
+      <c r="AV16" s="33"/>
+      <c r="AW16" s="33"/>
+      <c r="AX16" s="33"/>
+      <c r="AY16" s="33"/>
+      <c r="AZ16" s="33"/>
+      <c r="BA16" s="33"/>
+      <c r="BB16" s="33"/>
+      <c r="BC16" s="33"/>
+      <c r="BD16" s="34"/>
     </row>
     <row r="17" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="56" t="s">
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="49" t="s">
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="49"/>
-      <c r="AH17" s="40"/>
-      <c r="AI17" s="40"/>
-      <c r="AJ17" s="40"/>
-      <c r="AK17" s="40"/>
-      <c r="AL17" s="40"/>
-      <c r="AM17" s="40"/>
-      <c r="AN17" s="40"/>
-      <c r="AO17" s="40"/>
-      <c r="AP17" s="40"/>
-      <c r="AQ17" s="40"/>
-      <c r="AR17" s="40"/>
-      <c r="AS17" s="40"/>
-      <c r="AT17" s="40"/>
-      <c r="AU17" s="40"/>
-      <c r="AV17" s="40"/>
-      <c r="AW17" s="40"/>
-      <c r="AX17" s="40"/>
-      <c r="AY17" s="40"/>
-      <c r="AZ17" s="40"/>
-      <c r="BA17" s="40"/>
-      <c r="BB17" s="40"/>
-      <c r="BC17" s="40"/>
-      <c r="BD17" s="41"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17" s="33"/>
+      <c r="AI17" s="33"/>
+      <c r="AJ17" s="33"/>
+      <c r="AK17" s="33"/>
+      <c r="AL17" s="33"/>
+      <c r="AM17" s="33"/>
+      <c r="AN17" s="33"/>
+      <c r="AO17" s="33"/>
+      <c r="AP17" s="33"/>
+      <c r="AQ17" s="33"/>
+      <c r="AR17" s="33"/>
+      <c r="AS17" s="33"/>
+      <c r="AT17" s="33"/>
+      <c r="AU17" s="33"/>
+      <c r="AV17" s="33"/>
+      <c r="AW17" s="33"/>
+      <c r="AX17" s="33"/>
+      <c r="AY17" s="33"/>
+      <c r="AZ17" s="33"/>
+      <c r="BA17" s="33"/>
+      <c r="BB17" s="33"/>
+      <c r="BC17" s="33"/>
+      <c r="BD17" s="34"/>
     </row>
     <row r="18" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="75"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="56" t="s">
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="49" t="s">
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="40"/>
-      <c r="AC18" s="40"/>
-      <c r="AD18" s="40"/>
-      <c r="AE18" s="40"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="49"/>
-      <c r="AH18" s="40"/>
-      <c r="AI18" s="40"/>
-      <c r="AJ18" s="40"/>
-      <c r="AK18" s="40"/>
-      <c r="AL18" s="40"/>
-      <c r="AM18" s="40"/>
-      <c r="AN18" s="40"/>
-      <c r="AO18" s="40"/>
-      <c r="AP18" s="40"/>
-      <c r="AQ18" s="40"/>
-      <c r="AR18" s="40"/>
-      <c r="AS18" s="40"/>
-      <c r="AT18" s="40"/>
-      <c r="AU18" s="40"/>
-      <c r="AV18" s="40"/>
-      <c r="AW18" s="40"/>
-      <c r="AX18" s="40"/>
-      <c r="AY18" s="40"/>
-      <c r="AZ18" s="40"/>
-      <c r="BA18" s="40"/>
-      <c r="BB18" s="40"/>
-      <c r="BC18" s="40"/>
-      <c r="BD18" s="41"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="32"/>
+      <c r="AH18" s="33"/>
+      <c r="AI18" s="33"/>
+      <c r="AJ18" s="33"/>
+      <c r="AK18" s="33"/>
+      <c r="AL18" s="33"/>
+      <c r="AM18" s="33"/>
+      <c r="AN18" s="33"/>
+      <c r="AO18" s="33"/>
+      <c r="AP18" s="33"/>
+      <c r="AQ18" s="33"/>
+      <c r="AR18" s="33"/>
+      <c r="AS18" s="33"/>
+      <c r="AT18" s="33"/>
+      <c r="AU18" s="33"/>
+      <c r="AV18" s="33"/>
+      <c r="AW18" s="33"/>
+      <c r="AX18" s="33"/>
+      <c r="AY18" s="33"/>
+      <c r="AZ18" s="33"/>
+      <c r="BA18" s="33"/>
+      <c r="BB18" s="33"/>
+      <c r="BC18" s="33"/>
+      <c r="BD18" s="34"/>
     </row>
     <row r="19" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="75"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="56" t="s">
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="49" t="s">
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="40"/>
-      <c r="AD19" s="40"/>
-      <c r="AE19" s="40"/>
-      <c r="AF19" s="41"/>
-      <c r="AG19" s="49"/>
-      <c r="AH19" s="40"/>
-      <c r="AI19" s="40"/>
-      <c r="AJ19" s="40"/>
-      <c r="AK19" s="40"/>
-      <c r="AL19" s="40"/>
-      <c r="AM19" s="40"/>
-      <c r="AN19" s="40"/>
-      <c r="AO19" s="40"/>
-      <c r="AP19" s="40"/>
-      <c r="AQ19" s="40"/>
-      <c r="AR19" s="40"/>
-      <c r="AS19" s="40"/>
-      <c r="AT19" s="40"/>
-      <c r="AU19" s="40"/>
-      <c r="AV19" s="40"/>
-      <c r="AW19" s="40"/>
-      <c r="AX19" s="40"/>
-      <c r="AY19" s="40"/>
-      <c r="AZ19" s="40"/>
-      <c r="BA19" s="40"/>
-      <c r="BB19" s="40"/>
-      <c r="BC19" s="40"/>
-      <c r="BD19" s="41"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="33"/>
+      <c r="AI19" s="33"/>
+      <c r="AJ19" s="33"/>
+      <c r="AK19" s="33"/>
+      <c r="AL19" s="33"/>
+      <c r="AM19" s="33"/>
+      <c r="AN19" s="33"/>
+      <c r="AO19" s="33"/>
+      <c r="AP19" s="33"/>
+      <c r="AQ19" s="33"/>
+      <c r="AR19" s="33"/>
+      <c r="AS19" s="33"/>
+      <c r="AT19" s="33"/>
+      <c r="AU19" s="33"/>
+      <c r="AV19" s="33"/>
+      <c r="AW19" s="33"/>
+      <c r="AX19" s="33"/>
+      <c r="AY19" s="33"/>
+      <c r="AZ19" s="33"/>
+      <c r="BA19" s="33"/>
+      <c r="BB19" s="33"/>
+      <c r="BC19" s="33"/>
+      <c r="BD19" s="34"/>
     </row>
     <row r="20" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="75"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78" t="s">
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="80"/>
-      <c r="S20" s="49" t="s">
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="41"/>
-      <c r="AG20" s="49"/>
-      <c r="AH20" s="40"/>
-      <c r="AI20" s="40"/>
-      <c r="AJ20" s="40"/>
-      <c r="AK20" s="40"/>
-      <c r="AL20" s="40"/>
-      <c r="AM20" s="40"/>
-      <c r="AN20" s="40"/>
-      <c r="AO20" s="40"/>
-      <c r="AP20" s="40"/>
-      <c r="AQ20" s="40"/>
-      <c r="AR20" s="40"/>
-      <c r="AS20" s="40"/>
-      <c r="AT20" s="40"/>
-      <c r="AU20" s="40"/>
-      <c r="AV20" s="40"/>
-      <c r="AW20" s="40"/>
-      <c r="AX20" s="40"/>
-      <c r="AY20" s="40"/>
-      <c r="AZ20" s="40"/>
-      <c r="BA20" s="40"/>
-      <c r="BB20" s="40"/>
-      <c r="BC20" s="40"/>
-      <c r="BD20" s="41"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="32"/>
+      <c r="AH20" s="33"/>
+      <c r="AI20" s="33"/>
+      <c r="AJ20" s="33"/>
+      <c r="AK20" s="33"/>
+      <c r="AL20" s="33"/>
+      <c r="AM20" s="33"/>
+      <c r="AN20" s="33"/>
+      <c r="AO20" s="33"/>
+      <c r="AP20" s="33"/>
+      <c r="AQ20" s="33"/>
+      <c r="AR20" s="33"/>
+      <c r="AS20" s="33"/>
+      <c r="AT20" s="33"/>
+      <c r="AU20" s="33"/>
+      <c r="AV20" s="33"/>
+      <c r="AW20" s="33"/>
+      <c r="AX20" s="33"/>
+      <c r="AY20" s="33"/>
+      <c r="AZ20" s="33"/>
+      <c r="BA20" s="33"/>
+      <c r="BB20" s="33"/>
+      <c r="BC20" s="33"/>
+      <c r="BD20" s="34"/>
     </row>
     <row r="21" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="75"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="78" t="s">
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="49" t="s">
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="40"/>
-      <c r="AE21" s="40"/>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="49"/>
-      <c r="AH21" s="40"/>
-      <c r="AI21" s="40"/>
-      <c r="AJ21" s="40"/>
-      <c r="AK21" s="40"/>
-      <c r="AL21" s="40"/>
-      <c r="AM21" s="40"/>
-      <c r="AN21" s="40"/>
-      <c r="AO21" s="40"/>
-      <c r="AP21" s="40"/>
-      <c r="AQ21" s="40"/>
-      <c r="AR21" s="40"/>
-      <c r="AS21" s="40"/>
-      <c r="AT21" s="40"/>
-      <c r="AU21" s="40"/>
-      <c r="AV21" s="40"/>
-      <c r="AW21" s="40"/>
-      <c r="AX21" s="40"/>
-      <c r="AY21" s="40"/>
-      <c r="AZ21" s="40"/>
-      <c r="BA21" s="40"/>
-      <c r="BB21" s="40"/>
-      <c r="BC21" s="40"/>
-      <c r="BD21" s="41"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="34"/>
+      <c r="AG21" s="32"/>
+      <c r="AH21" s="33"/>
+      <c r="AI21" s="33"/>
+      <c r="AJ21" s="33"/>
+      <c r="AK21" s="33"/>
+      <c r="AL21" s="33"/>
+      <c r="AM21" s="33"/>
+      <c r="AN21" s="33"/>
+      <c r="AO21" s="33"/>
+      <c r="AP21" s="33"/>
+      <c r="AQ21" s="33"/>
+      <c r="AR21" s="33"/>
+      <c r="AS21" s="33"/>
+      <c r="AT21" s="33"/>
+      <c r="AU21" s="33"/>
+      <c r="AV21" s="33"/>
+      <c r="AW21" s="33"/>
+      <c r="AX21" s="33"/>
+      <c r="AY21" s="33"/>
+      <c r="AZ21" s="33"/>
+      <c r="BA21" s="33"/>
+      <c r="BB21" s="33"/>
+      <c r="BC21" s="33"/>
+      <c r="BD21" s="34"/>
     </row>
     <row r="22" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="81" t="s">
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="45" t="s">
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="43"/>
-      <c r="AC22" s="43"/>
-      <c r="AD22" s="43"/>
-      <c r="AE22" s="43"/>
-      <c r="AF22" s="44"/>
-      <c r="AG22" s="45"/>
-      <c r="AH22" s="43"/>
-      <c r="AI22" s="43"/>
-      <c r="AJ22" s="43"/>
-      <c r="AK22" s="43"/>
-      <c r="AL22" s="43"/>
-      <c r="AM22" s="43"/>
-      <c r="AN22" s="43"/>
-      <c r="AO22" s="43"/>
-      <c r="AP22" s="43"/>
-      <c r="AQ22" s="43"/>
-      <c r="AR22" s="43"/>
-      <c r="AS22" s="43"/>
-      <c r="AT22" s="43"/>
-      <c r="AU22" s="43"/>
-      <c r="AV22" s="43"/>
-      <c r="AW22" s="43"/>
-      <c r="AX22" s="43"/>
-      <c r="AY22" s="43"/>
-      <c r="AZ22" s="43"/>
-      <c r="BA22" s="43"/>
-      <c r="BB22" s="43"/>
-      <c r="BC22" s="43"/>
-      <c r="BD22" s="44"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="24"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="24"/>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="24"/>
+      <c r="AI22" s="24"/>
+      <c r="AJ22" s="24"/>
+      <c r="AK22" s="24"/>
+      <c r="AL22" s="24"/>
+      <c r="AM22" s="24"/>
+      <c r="AN22" s="24"/>
+      <c r="AO22" s="24"/>
+      <c r="AP22" s="24"/>
+      <c r="AQ22" s="24"/>
+      <c r="AR22" s="24"/>
+      <c r="AS22" s="24"/>
+      <c r="AT22" s="24"/>
+      <c r="AU22" s="24"/>
+      <c r="AV22" s="24"/>
+      <c r="AW22" s="24"/>
+      <c r="AX22" s="24"/>
+      <c r="AY22" s="24"/>
+      <c r="AZ22" s="24"/>
+      <c r="BA22" s="24"/>
+      <c r="BB22" s="24"/>
+      <c r="BC22" s="24"/>
+      <c r="BD22" s="25"/>
     </row>
     <row r="23" spans="2:56" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="25" t="s">
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="25" t="s">
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="25"/>
-      <c r="AH23" s="26"/>
-      <c r="AI23" s="26"/>
-      <c r="AJ23" s="26"/>
-      <c r="AK23" s="26"/>
-      <c r="AL23" s="26"/>
-      <c r="AM23" s="26"/>
-      <c r="AN23" s="26"/>
-      <c r="AO23" s="26"/>
-      <c r="AP23" s="26"/>
-      <c r="AQ23" s="26"/>
-      <c r="AR23" s="26"/>
-      <c r="AS23" s="26"/>
-      <c r="AT23" s="26"/>
-      <c r="AU23" s="26"/>
-      <c r="AV23" s="26"/>
-      <c r="AW23" s="26"/>
-      <c r="AX23" s="26"/>
-      <c r="AY23" s="26"/>
-      <c r="AZ23" s="26"/>
-      <c r="BA23" s="26"/>
-      <c r="BB23" s="26"/>
-      <c r="BC23" s="26"/>
-      <c r="BD23" s="27"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="81"/>
+      <c r="W23" s="81"/>
+      <c r="X23" s="81"/>
+      <c r="Y23" s="81"/>
+      <c r="Z23" s="81"/>
+      <c r="AA23" s="81"/>
+      <c r="AB23" s="81"/>
+      <c r="AC23" s="81"/>
+      <c r="AD23" s="81"/>
+      <c r="AE23" s="81"/>
+      <c r="AF23" s="82"/>
+      <c r="AG23" s="80"/>
+      <c r="AH23" s="81"/>
+      <c r="AI23" s="81"/>
+      <c r="AJ23" s="81"/>
+      <c r="AK23" s="81"/>
+      <c r="AL23" s="81"/>
+      <c r="AM23" s="81"/>
+      <c r="AN23" s="81"/>
+      <c r="AO23" s="81"/>
+      <c r="AP23" s="81"/>
+      <c r="AQ23" s="81"/>
+      <c r="AR23" s="81"/>
+      <c r="AS23" s="81"/>
+      <c r="AT23" s="81"/>
+      <c r="AU23" s="81"/>
+      <c r="AV23" s="81"/>
+      <c r="AW23" s="81"/>
+      <c r="AX23" s="81"/>
+      <c r="AY23" s="81"/>
+      <c r="AZ23" s="81"/>
+      <c r="BA23" s="81"/>
+      <c r="BB23" s="81"/>
+      <c r="BC23" s="81"/>
+      <c r="BD23" s="82"/>
     </row>
     <row r="24" spans="2:56" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="29"/>
-      <c r="AI24" s="29"/>
-      <c r="AJ24" s="29"/>
-      <c r="AK24" s="29"/>
-      <c r="AL24" s="29"/>
-      <c r="AM24" s="29"/>
-      <c r="AN24" s="29"/>
-      <c r="AO24" s="29"/>
-      <c r="AP24" s="29"/>
-      <c r="AQ24" s="29"/>
-      <c r="AR24" s="29"/>
-      <c r="AS24" s="29"/>
-      <c r="AT24" s="29"/>
-      <c r="AU24" s="29"/>
-      <c r="AV24" s="29"/>
-      <c r="AW24" s="29"/>
-      <c r="AX24" s="29"/>
-      <c r="AY24" s="29"/>
-      <c r="AZ24" s="29"/>
-      <c r="BA24" s="29"/>
-      <c r="BB24" s="29"/>
-      <c r="BC24" s="29"/>
-      <c r="BD24" s="30"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="84"/>
+      <c r="U24" s="84"/>
+      <c r="V24" s="84"/>
+      <c r="W24" s="84"/>
+      <c r="X24" s="84"/>
+      <c r="Y24" s="84"/>
+      <c r="Z24" s="84"/>
+      <c r="AA24" s="84"/>
+      <c r="AB24" s="84"/>
+      <c r="AC24" s="84"/>
+      <c r="AD24" s="84"/>
+      <c r="AE24" s="84"/>
+      <c r="AF24" s="85"/>
+      <c r="AG24" s="83"/>
+      <c r="AH24" s="84"/>
+      <c r="AI24" s="84"/>
+      <c r="AJ24" s="84"/>
+      <c r="AK24" s="84"/>
+      <c r="AL24" s="84"/>
+      <c r="AM24" s="84"/>
+      <c r="AN24" s="84"/>
+      <c r="AO24" s="84"/>
+      <c r="AP24" s="84"/>
+      <c r="AQ24" s="84"/>
+      <c r="AR24" s="84"/>
+      <c r="AS24" s="84"/>
+      <c r="AT24" s="84"/>
+      <c r="AU24" s="84"/>
+      <c r="AV24" s="84"/>
+      <c r="AW24" s="84"/>
+      <c r="AX24" s="84"/>
+      <c r="AY24" s="84"/>
+      <c r="AZ24" s="84"/>
+      <c r="BA24" s="84"/>
+      <c r="BB24" s="84"/>
+      <c r="BC24" s="84"/>
+      <c r="BD24" s="85"/>
     </row>
     <row r="25" spans="2:56" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="25" t="s">
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="31"/>
-      <c r="AG25" s="31"/>
-      <c r="AH25" s="31"/>
-      <c r="AI25" s="31"/>
-      <c r="AJ25" s="31"/>
-      <c r="AK25" s="31"/>
-      <c r="AL25" s="31"/>
-      <c r="AM25" s="31"/>
-      <c r="AN25" s="31"/>
-      <c r="AO25" s="31"/>
-      <c r="AP25" s="31"/>
-      <c r="AQ25" s="31"/>
-      <c r="AR25" s="31"/>
-      <c r="AS25" s="31"/>
-      <c r="AT25" s="31"/>
-      <c r="AU25" s="31"/>
-      <c r="AV25" s="31"/>
-      <c r="AW25" s="31"/>
-      <c r="AX25" s="31"/>
-      <c r="AY25" s="31"/>
-      <c r="AZ25" s="31"/>
-      <c r="BA25" s="31"/>
-      <c r="BB25" s="31"/>
-      <c r="BC25" s="31"/>
-      <c r="BD25" s="31"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="82"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="86"/>
+      <c r="Y25" s="86"/>
+      <c r="Z25" s="86"/>
+      <c r="AA25" s="86"/>
+      <c r="AB25" s="86"/>
+      <c r="AC25" s="86"/>
+      <c r="AD25" s="86"/>
+      <c r="AE25" s="86"/>
+      <c r="AF25" s="86"/>
+      <c r="AG25" s="86"/>
+      <c r="AH25" s="86"/>
+      <c r="AI25" s="86"/>
+      <c r="AJ25" s="86"/>
+      <c r="AK25" s="86"/>
+      <c r="AL25" s="86"/>
+      <c r="AM25" s="86"/>
+      <c r="AN25" s="86"/>
+      <c r="AO25" s="86"/>
+      <c r="AP25" s="86"/>
+      <c r="AQ25" s="86"/>
+      <c r="AR25" s="86"/>
+      <c r="AS25" s="86"/>
+      <c r="AT25" s="86"/>
+      <c r="AU25" s="86"/>
+      <c r="AV25" s="86"/>
+      <c r="AW25" s="86"/>
+      <c r="AX25" s="86"/>
+      <c r="AY25" s="86"/>
+      <c r="AZ25" s="86"/>
+      <c r="BA25" s="86"/>
+      <c r="BB25" s="86"/>
+      <c r="BC25" s="86"/>
+      <c r="BD25" s="86"/>
     </row>
     <row r="26" spans="2:56" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
-      <c r="AJ26" s="32"/>
-      <c r="AK26" s="32"/>
-      <c r="AL26" s="32"/>
-      <c r="AM26" s="32"/>
-      <c r="AN26" s="32"/>
-      <c r="AO26" s="32"/>
-      <c r="AP26" s="32"/>
-      <c r="AQ26" s="32"/>
-      <c r="AR26" s="32"/>
-      <c r="AS26" s="32"/>
-      <c r="AT26" s="32"/>
-      <c r="AU26" s="32"/>
-      <c r="AV26" s="32"/>
-      <c r="AW26" s="32"/>
-      <c r="AX26" s="32"/>
-      <c r="AY26" s="32"/>
-      <c r="AZ26" s="32"/>
-      <c r="BA26" s="32"/>
-      <c r="BB26" s="32"/>
-      <c r="BC26" s="32"/>
-      <c r="BD26" s="32"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="85"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="87"/>
+      <c r="W26" s="87"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="87"/>
+      <c r="AA26" s="87"/>
+      <c r="AB26" s="87"/>
+      <c r="AC26" s="87"/>
+      <c r="AD26" s="87"/>
+      <c r="AE26" s="87"/>
+      <c r="AF26" s="87"/>
+      <c r="AG26" s="87"/>
+      <c r="AH26" s="87"/>
+      <c r="AI26" s="87"/>
+      <c r="AJ26" s="87"/>
+      <c r="AK26" s="87"/>
+      <c r="AL26" s="87"/>
+      <c r="AM26" s="87"/>
+      <c r="AN26" s="87"/>
+      <c r="AO26" s="87"/>
+      <c r="AP26" s="87"/>
+      <c r="AQ26" s="87"/>
+      <c r="AR26" s="87"/>
+      <c r="AS26" s="87"/>
+      <c r="AT26" s="87"/>
+      <c r="AU26" s="87"/>
+      <c r="AV26" s="87"/>
+      <c r="AW26" s="87"/>
+      <c r="AX26" s="87"/>
+      <c r="AY26" s="87"/>
+      <c r="AZ26" s="87"/>
+      <c r="BA26" s="87"/>
+      <c r="BB26" s="87"/>
+      <c r="BC26" s="87"/>
+      <c r="BD26" s="87"/>
     </row>
     <row r="31" spans="2:56" x14ac:dyDescent="0.15">
       <c r="F31" s="2" t="s">
@@ -3893,6 +3892,65 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="F25:R26"/>
+    <mergeCell ref="S25:AF26"/>
+    <mergeCell ref="AG25:BD26"/>
+    <mergeCell ref="B23:E24"/>
+    <mergeCell ref="F23:R24"/>
+    <mergeCell ref="S23:AF24"/>
+    <mergeCell ref="AG23:BD24"/>
+    <mergeCell ref="S4:AF4"/>
+    <mergeCell ref="F8:R8"/>
+    <mergeCell ref="S8:AF8"/>
+    <mergeCell ref="S22:AF22"/>
+    <mergeCell ref="S12:AF12"/>
+    <mergeCell ref="S21:AF21"/>
+    <mergeCell ref="S13:AF13"/>
+    <mergeCell ref="S14:AF14"/>
+    <mergeCell ref="S15:AF15"/>
+    <mergeCell ref="F6:R6"/>
+    <mergeCell ref="S6:AF6"/>
+    <mergeCell ref="F5:R5"/>
+    <mergeCell ref="S5:AF5"/>
+    <mergeCell ref="F7:R7"/>
+    <mergeCell ref="S7:AF7"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="AG2:BD2"/>
+    <mergeCell ref="AG3:BD3"/>
+    <mergeCell ref="F4:R4"/>
+    <mergeCell ref="F16:R16"/>
+    <mergeCell ref="F12:R12"/>
+    <mergeCell ref="F13:R13"/>
+    <mergeCell ref="F14:R14"/>
+    <mergeCell ref="F15:R15"/>
+    <mergeCell ref="F3:R3"/>
+    <mergeCell ref="F10:R10"/>
+    <mergeCell ref="F9:R9"/>
+    <mergeCell ref="F11:R11"/>
+    <mergeCell ref="S16:AF16"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="S9:AF9"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E8"/>
+    <mergeCell ref="B9:E11"/>
+    <mergeCell ref="B12:E22"/>
+    <mergeCell ref="F2:R2"/>
+    <mergeCell ref="F17:R17"/>
+    <mergeCell ref="F18:R18"/>
+    <mergeCell ref="F19:R19"/>
+    <mergeCell ref="F20:R20"/>
+    <mergeCell ref="F22:R22"/>
+    <mergeCell ref="F21:R21"/>
+    <mergeCell ref="AG19:BD19"/>
+    <mergeCell ref="AG4:BD4"/>
+    <mergeCell ref="AG10:BD10"/>
+    <mergeCell ref="AG12:BD12"/>
+    <mergeCell ref="AG13:BD13"/>
+    <mergeCell ref="AG14:BD14"/>
+    <mergeCell ref="AG6:BD6"/>
+    <mergeCell ref="AG5:BD5"/>
+    <mergeCell ref="AG7:BD7"/>
     <mergeCell ref="AG22:BD22"/>
     <mergeCell ref="AG8:BD8"/>
     <mergeCell ref="AG9:BD9"/>
@@ -3909,65 +3967,6 @@
     <mergeCell ref="AG16:BD16"/>
     <mergeCell ref="AG17:BD17"/>
     <mergeCell ref="AG18:BD18"/>
-    <mergeCell ref="AG19:BD19"/>
-    <mergeCell ref="AG4:BD4"/>
-    <mergeCell ref="AG10:BD10"/>
-    <mergeCell ref="AG12:BD12"/>
-    <mergeCell ref="AG13:BD13"/>
-    <mergeCell ref="AG14:BD14"/>
-    <mergeCell ref="AG6:BD6"/>
-    <mergeCell ref="AG5:BD5"/>
-    <mergeCell ref="AG7:BD7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E8"/>
-    <mergeCell ref="B9:E11"/>
-    <mergeCell ref="B12:E22"/>
-    <mergeCell ref="F2:R2"/>
-    <mergeCell ref="F17:R17"/>
-    <mergeCell ref="F18:R18"/>
-    <mergeCell ref="F19:R19"/>
-    <mergeCell ref="F20:R20"/>
-    <mergeCell ref="F22:R22"/>
-    <mergeCell ref="F21:R21"/>
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="AG2:BD2"/>
-    <mergeCell ref="AG3:BD3"/>
-    <mergeCell ref="F4:R4"/>
-    <mergeCell ref="F16:R16"/>
-    <mergeCell ref="F12:R12"/>
-    <mergeCell ref="F13:R13"/>
-    <mergeCell ref="F14:R14"/>
-    <mergeCell ref="F15:R15"/>
-    <mergeCell ref="F3:R3"/>
-    <mergeCell ref="F10:R10"/>
-    <mergeCell ref="F9:R9"/>
-    <mergeCell ref="F11:R11"/>
-    <mergeCell ref="S16:AF16"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="S9:AF9"/>
-    <mergeCell ref="S4:AF4"/>
-    <mergeCell ref="F8:R8"/>
-    <mergeCell ref="S8:AF8"/>
-    <mergeCell ref="S22:AF22"/>
-    <mergeCell ref="S12:AF12"/>
-    <mergeCell ref="S21:AF21"/>
-    <mergeCell ref="S13:AF13"/>
-    <mergeCell ref="S14:AF14"/>
-    <mergeCell ref="S15:AF15"/>
-    <mergeCell ref="F6:R6"/>
-    <mergeCell ref="S6:AF6"/>
-    <mergeCell ref="F5:R5"/>
-    <mergeCell ref="S5:AF5"/>
-    <mergeCell ref="F7:R7"/>
-    <mergeCell ref="S7:AF7"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="F25:R26"/>
-    <mergeCell ref="S25:AF26"/>
-    <mergeCell ref="AG25:BD26"/>
-    <mergeCell ref="B23:E24"/>
-    <mergeCell ref="F23:R24"/>
-    <mergeCell ref="S23:AF24"/>
-    <mergeCell ref="AG23:BD24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3989,9 +3988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4097,7 +4094,7 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="9217">
+        <oleObject progId="Visio.Drawing.15" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="9217">
           <objectPr defaultSize="0" dde="1" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -4117,12 +4114,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="9217"/>
+        <oleObject progId="Visio.Drawing.15" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="9217"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="9218">
+        <oleObject progId="Visio.Drawing.15" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="9218">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -4142,7 +4139,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="9218"/>
+        <oleObject progId="Visio.Drawing.15" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="9218"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -4151,10 +4148,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G66"/>
+  <dimension ref="B1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/lottery/file/彩票设计.xlsx
+++ b/lottery/file/彩票设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14715" windowHeight="7965" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="12660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="10" r:id="rId1"/>
@@ -24,11 +24,12 @@
     <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="140">
   <si>
     <t>双色球红球共有33个号码。一般来说，小号指01-16的号码，大号指17-33的号码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,147 +414,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TABLE_BALL_RED_FILTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BALL_RED_FILTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERVAL_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERVAL_4</t>
+  </si>
+  <si>
+    <t>INTERVAL_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BALL_RED_FILTER_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE_BALL_RED_FILTER_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE_BALL_RED_FILTER_SAV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE_BALL_BLUE_FILTER_SAV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第几期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BALL_RED_FILTER_SAV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BALL_BLUE_FILTER_SAV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE_BALL_HISTORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BALL_HISTORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE_NO</t>
+  </si>
+  <si>
+    <t>RED_1</t>
+  </si>
+  <si>
+    <t>RED_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RED_2</t>
+  </si>
+  <si>
+    <t>RED_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RED_3</t>
+  </si>
+  <si>
+    <t>RED_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RED_4</t>
+  </si>
+  <si>
+    <t>RED_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RED_5</t>
+  </si>
+  <si>
+    <t>RED_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RED_6</t>
+  </si>
+  <si>
+    <t>RED_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERVAL_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BALL_RED_BASE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TABLE_BALL_RED_FILTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BALL_RED_FILTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INTERVAL_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INTERVAL_4</t>
-  </si>
-  <si>
-    <t>INTERVAL_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BALL_RED_FILTER_TMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLE_BALL_RED_FILTER_TMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLE_BALL_RED_FILTER_SAV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLE_BALL_BLUE_FILTER_SAV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第几期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BALL_RED_FILTER_SAV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BALL_BLUE_FILTER_SAV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BALL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLE_BALL_HISTORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BALL_HISTORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE_NO</t>
-  </si>
-  <si>
-    <t>RED_1</t>
-  </si>
-  <si>
-    <t>RED_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RED_2</t>
-  </si>
-  <si>
-    <t>RED_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RED_3</t>
-  </si>
-  <si>
-    <t>RED_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RED_4</t>
-  </si>
-  <si>
-    <t>RED_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RED_5</t>
-  </si>
-  <si>
-    <t>RED_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RED_6</t>
-  </si>
-  <si>
-    <t>RED_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INTERVAL_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2488,7 +2497,7 @@
       <c r="Q4" s="33"/>
       <c r="R4" s="34"/>
       <c r="S4" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T4" s="33"/>
       <c r="U4" s="33"/>
@@ -2551,7 +2560,7 @@
       <c r="Q5" s="33"/>
       <c r="R5" s="34"/>
       <c r="S5" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T5" s="33"/>
       <c r="U5" s="33"/>
@@ -2614,7 +2623,7 @@
       <c r="Q6" s="33"/>
       <c r="R6" s="34"/>
       <c r="S6" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T6" s="33"/>
       <c r="U6" s="33"/>
@@ -2677,7 +2686,7 @@
       <c r="Q7" s="33"/>
       <c r="R7" s="34"/>
       <c r="S7" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T7" s="33"/>
       <c r="U7" s="33"/>
@@ -2740,7 +2749,7 @@
       <c r="Q8" s="24"/>
       <c r="R8" s="25"/>
       <c r="S8" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T8" s="24"/>
       <c r="U8" s="24"/>
@@ -4094,7 +4103,7 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="9217">
+        <oleObject link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="9217">
           <objectPr defaultSize="0" dde="1" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -4114,12 +4123,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="9217"/>
+        <oleObject link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="9217"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="9218">
+        <oleObject link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="9218">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -4139,7 +4148,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="9218"/>
+        <oleObject link="[2]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="9218"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -4148,10 +4157,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G66"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:G12"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E66" sqref="B57:E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4172,7 +4181,7 @@
         <v>87</v>
       </c>
       <c r="C2" s="88" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="D2" s="88"/>
       <c r="E2" s="88"/>
@@ -4201,7 +4210,7 @@
     </row>
     <row r="4" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>98</v>
@@ -4217,7 +4226,7 @@
     </row>
     <row r="5" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>95</v>
@@ -4233,7 +4242,7 @@
     </row>
     <row r="6" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>95</v>
@@ -4249,7 +4258,7 @@
     </row>
     <row r="7" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>95</v>
@@ -4265,7 +4274,7 @@
     </row>
     <row r="8" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>95</v>
@@ -4281,7 +4290,7 @@
     </row>
     <row r="9" spans="2:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>95</v>
@@ -4301,7 +4310,7 @@
         <v>87</v>
       </c>
       <c r="C12" s="88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="88"/>
       <c r="E12" s="88"/>
@@ -4330,7 +4339,7 @@
     </row>
     <row r="14" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>98</v>
@@ -4346,7 +4355,7 @@
     </row>
     <row r="15" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>95</v>
@@ -4362,7 +4371,7 @@
     </row>
     <row r="16" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>95</v>
@@ -4378,7 +4387,7 @@
     </row>
     <row r="17" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>95</v>
@@ -4394,7 +4403,7 @@
     </row>
     <row r="18" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>95</v>
@@ -4410,7 +4419,7 @@
     </row>
     <row r="19" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>95</v>
@@ -4426,10 +4435,10 @@
     </row>
     <row r="20" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D20" s="20">
         <v>3</v>
@@ -4440,10 +4449,10 @@
     </row>
     <row r="21" spans="2:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D21" s="14">
         <v>4</v>
@@ -4458,7 +4467,7 @@
         <v>87</v>
       </c>
       <c r="C24" s="88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D24" s="88"/>
       <c r="E24" s="88"/>
@@ -4487,7 +4496,7 @@
     </row>
     <row r="26" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>98</v>
@@ -4503,7 +4512,7 @@
     </row>
     <row r="27" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>95</v>
@@ -4519,7 +4528,7 @@
     </row>
     <row r="28" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>95</v>
@@ -4535,7 +4544,7 @@
     </row>
     <row r="29" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>95</v>
@@ -4551,7 +4560,7 @@
     </row>
     <row r="30" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>95</v>
@@ -4567,7 +4576,7 @@
     </row>
     <row r="31" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>95</v>
@@ -4583,10 +4592,10 @@
     </row>
     <row r="32" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B32" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="D32" s="20">
         <v>3</v>
@@ -4597,10 +4606,10 @@
     </row>
     <row r="33" spans="2:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="14">
         <v>4</v>
@@ -4615,7 +4624,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="88"/>
       <c r="E36" s="88"/>
@@ -4644,7 +4653,7 @@
     </row>
     <row r="38" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>98</v>
@@ -4660,7 +4669,7 @@
     </row>
     <row r="39" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>95</v>
@@ -4676,7 +4685,7 @@
     </row>
     <row r="40" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>95</v>
@@ -4692,7 +4701,7 @@
     </row>
     <row r="41" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>95</v>
@@ -4708,7 +4717,7 @@
     </row>
     <row r="42" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>95</v>
@@ -4724,7 +4733,7 @@
     </row>
     <row r="43" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>95</v>
@@ -4733,59 +4742,59 @@
         <v>96</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="22"/>
     </row>
     <row r="44" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B44" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D44" s="20">
         <v>3</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F44" s="21"/>
       <c r="G44" s="22"/>
     </row>
     <row r="45" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B45" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D45" s="20">
         <v>4</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F45" s="21"/>
       <c r="G45" s="22"/>
     </row>
     <row r="46" spans="2:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D46" s="14">
         <v>7</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -4794,7 +4803,7 @@
         <v>87</v>
       </c>
       <c r="C49" s="88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D49" s="88"/>
       <c r="E49" s="88"/>
@@ -4823,7 +4832,7 @@
     </row>
     <row r="51" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>98</v>
@@ -4839,20 +4848,20 @@
     </row>
     <row r="52" spans="2:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D52" s="14">
         <v>7</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F52" s="11"/>
       <c r="G52" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -4861,7 +4870,7 @@
         <v>87</v>
       </c>
       <c r="C55" s="88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D55" s="88"/>
       <c r="E55" s="88"/>
@@ -4890,7 +4899,7 @@
     </row>
     <row r="57" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>98</v>
@@ -4906,7 +4915,7 @@
     </row>
     <row r="58" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>95</v>
@@ -4922,7 +4931,7 @@
     </row>
     <row r="59" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>95</v>
@@ -4938,7 +4947,7 @@
     </row>
     <row r="60" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>95</v>
@@ -4954,7 +4963,7 @@
     </row>
     <row r="61" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>95</v>
@@ -4970,7 +4979,7 @@
     </row>
     <row r="62" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>95</v>
@@ -4979,14 +4988,14 @@
         <v>96</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F62" s="21"/>
       <c r="G62" s="22"/>
     </row>
     <row r="63" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B63" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>95</v>
@@ -4995,61 +5004,61 @@
         <v>96</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F63" s="21"/>
       <c r="G63" s="22"/>
     </row>
     <row r="64" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B64" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D64" s="20">
         <v>3</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F64" s="21"/>
       <c r="G64" s="22"/>
     </row>
     <row r="65" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B65" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D65" s="20">
         <v>4</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F65" s="21"/>
       <c r="G65" s="22"/>
     </row>
     <row r="66" spans="2:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D66" s="14">
         <v>7</v>
       </c>
       <c r="E66" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G66" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/lottery/file/彩票设计.xlsx
+++ b/lottery/file/彩票设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="12660" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="12660" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="10" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:BK44"/>
 </workbook>
 </file>
 
@@ -1164,16 +1164,193 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1181,183 +1358,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2347,1549 +2347,1549 @@
   <sheetData>
     <row r="1" spans="2:56" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:56" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="62" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="62" t="s">
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="62" t="s">
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="63"/>
-      <c r="AQ2" s="63"/>
-      <c r="AR2" s="63"/>
-      <c r="AS2" s="63"/>
-      <c r="AT2" s="63"/>
-      <c r="AU2" s="63"/>
-      <c r="AV2" s="63"/>
-      <c r="AW2" s="63"/>
-      <c r="AX2" s="63"/>
-      <c r="AY2" s="63"/>
-      <c r="AZ2" s="63"/>
-      <c r="BA2" s="63"/>
-      <c r="BB2" s="63"/>
-      <c r="BC2" s="63"/>
-      <c r="BD2" s="64"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51"/>
+      <c r="BB2" s="51"/>
+      <c r="BC2" s="51"/>
+      <c r="BD2" s="52"/>
     </row>
     <row r="3" spans="2:56" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="77" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="77" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="29" t="s">
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="30"/>
-      <c r="AQ3" s="30"/>
-      <c r="AR3" s="30"/>
-      <c r="AS3" s="30"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30"/>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="31"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="54"/>
+      <c r="AZ3" s="54"/>
+      <c r="BA3" s="54"/>
+      <c r="BB3" s="54"/>
+      <c r="BC3" s="54"/>
+      <c r="BD3" s="55"/>
     </row>
     <row r="4" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="35" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="35" t="s">
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="35" t="s">
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="36"/>
-      <c r="AQ4" s="36"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36"/>
-      <c r="AV4" s="36"/>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="36"/>
-      <c r="AY4" s="36"/>
-      <c r="AZ4" s="36"/>
-      <c r="BA4" s="36"/>
-      <c r="BB4" s="36"/>
-      <c r="BC4" s="36"/>
-      <c r="BD4" s="37"/>
+      <c r="AH4" s="84"/>
+      <c r="AI4" s="84"/>
+      <c r="AJ4" s="84"/>
+      <c r="AK4" s="84"/>
+      <c r="AL4" s="84"/>
+      <c r="AM4" s="84"/>
+      <c r="AN4" s="84"/>
+      <c r="AO4" s="84"/>
+      <c r="AP4" s="84"/>
+      <c r="AQ4" s="84"/>
+      <c r="AR4" s="84"/>
+      <c r="AS4" s="84"/>
+      <c r="AT4" s="84"/>
+      <c r="AU4" s="84"/>
+      <c r="AV4" s="84"/>
+      <c r="AW4" s="84"/>
+      <c r="AX4" s="84"/>
+      <c r="AY4" s="84"/>
+      <c r="AZ4" s="84"/>
+      <c r="BA4" s="84"/>
+      <c r="BB4" s="84"/>
+      <c r="BC4" s="84"/>
+      <c r="BD4" s="85"/>
     </row>
     <row r="5" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="35" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="35" t="s">
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="35" t="s">
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="36"/>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="36"/>
-      <c r="AR5" s="36"/>
-      <c r="AS5" s="36"/>
-      <c r="AT5" s="36"/>
-      <c r="AU5" s="36"/>
-      <c r="AV5" s="36"/>
-      <c r="AW5" s="36"/>
-      <c r="AX5" s="36"/>
-      <c r="AY5" s="36"/>
-      <c r="AZ5" s="36"/>
-      <c r="BA5" s="36"/>
-      <c r="BB5" s="36"/>
-      <c r="BC5" s="36"/>
-      <c r="BD5" s="37"/>
+      <c r="AH5" s="84"/>
+      <c r="AI5" s="84"/>
+      <c r="AJ5" s="84"/>
+      <c r="AK5" s="84"/>
+      <c r="AL5" s="84"/>
+      <c r="AM5" s="84"/>
+      <c r="AN5" s="84"/>
+      <c r="AO5" s="84"/>
+      <c r="AP5" s="84"/>
+      <c r="AQ5" s="84"/>
+      <c r="AR5" s="84"/>
+      <c r="AS5" s="84"/>
+      <c r="AT5" s="84"/>
+      <c r="AU5" s="84"/>
+      <c r="AV5" s="84"/>
+      <c r="AW5" s="84"/>
+      <c r="AX5" s="84"/>
+      <c r="AY5" s="84"/>
+      <c r="AZ5" s="84"/>
+      <c r="BA5" s="84"/>
+      <c r="BB5" s="84"/>
+      <c r="BC5" s="84"/>
+      <c r="BD5" s="85"/>
     </row>
     <row r="6" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="35" t="s">
+      <c r="B6" s="69"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="35" t="s">
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="35" t="s">
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="36"/>
-      <c r="AL6" s="36"/>
-      <c r="AM6" s="36"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="36"/>
-      <c r="AP6" s="36"/>
-      <c r="AQ6" s="36"/>
-      <c r="AR6" s="36"/>
-      <c r="AS6" s="36"/>
-      <c r="AT6" s="36"/>
-      <c r="AU6" s="36"/>
-      <c r="AV6" s="36"/>
-      <c r="AW6" s="36"/>
-      <c r="AX6" s="36"/>
-      <c r="AY6" s="36"/>
-      <c r="AZ6" s="36"/>
-      <c r="BA6" s="36"/>
-      <c r="BB6" s="36"/>
-      <c r="BC6" s="36"/>
-      <c r="BD6" s="37"/>
+      <c r="AH6" s="84"/>
+      <c r="AI6" s="84"/>
+      <c r="AJ6" s="84"/>
+      <c r="AK6" s="84"/>
+      <c r="AL6" s="84"/>
+      <c r="AM6" s="84"/>
+      <c r="AN6" s="84"/>
+      <c r="AO6" s="84"/>
+      <c r="AP6" s="84"/>
+      <c r="AQ6" s="84"/>
+      <c r="AR6" s="84"/>
+      <c r="AS6" s="84"/>
+      <c r="AT6" s="84"/>
+      <c r="AU6" s="84"/>
+      <c r="AV6" s="84"/>
+      <c r="AW6" s="84"/>
+      <c r="AX6" s="84"/>
+      <c r="AY6" s="84"/>
+      <c r="AZ6" s="84"/>
+      <c r="BA6" s="84"/>
+      <c r="BB6" s="84"/>
+      <c r="BC6" s="84"/>
+      <c r="BD6" s="85"/>
     </row>
     <row r="7" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="35" t="s">
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="35" t="s">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="34"/>
-      <c r="AG7" s="35" t="s">
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="36"/>
-      <c r="AJ7" s="36"/>
-      <c r="AK7" s="36"/>
-      <c r="AL7" s="36"/>
-      <c r="AM7" s="36"/>
-      <c r="AN7" s="36"/>
-      <c r="AO7" s="36"/>
-      <c r="AP7" s="36"/>
-      <c r="AQ7" s="36"/>
-      <c r="AR7" s="36"/>
-      <c r="AS7" s="36"/>
-      <c r="AT7" s="36"/>
-      <c r="AU7" s="36"/>
-      <c r="AV7" s="36"/>
-      <c r="AW7" s="36"/>
-      <c r="AX7" s="36"/>
-      <c r="AY7" s="36"/>
-      <c r="AZ7" s="36"/>
-      <c r="BA7" s="36"/>
-      <c r="BB7" s="36"/>
-      <c r="BC7" s="36"/>
-      <c r="BD7" s="37"/>
+      <c r="AH7" s="84"/>
+      <c r="AI7" s="84"/>
+      <c r="AJ7" s="84"/>
+      <c r="AK7" s="84"/>
+      <c r="AL7" s="84"/>
+      <c r="AM7" s="84"/>
+      <c r="AN7" s="84"/>
+      <c r="AO7" s="84"/>
+      <c r="AP7" s="84"/>
+      <c r="AQ7" s="84"/>
+      <c r="AR7" s="84"/>
+      <c r="AS7" s="84"/>
+      <c r="AT7" s="84"/>
+      <c r="AU7" s="84"/>
+      <c r="AV7" s="84"/>
+      <c r="AW7" s="84"/>
+      <c r="AX7" s="84"/>
+      <c r="AY7" s="84"/>
+      <c r="AZ7" s="84"/>
+      <c r="BA7" s="84"/>
+      <c r="BB7" s="84"/>
+      <c r="BC7" s="84"/>
+      <c r="BD7" s="85"/>
     </row>
     <row r="8" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="26" t="s">
+      <c r="B8" s="72"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="26" t="s">
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="24"/>
-      <c r="AF8" s="25"/>
-      <c r="AG8" s="26" t="s">
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="AH8" s="27"/>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="27"/>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="27"/>
-      <c r="AM8" s="27"/>
-      <c r="AN8" s="27"/>
-      <c r="AO8" s="27"/>
-      <c r="AP8" s="27"/>
-      <c r="AQ8" s="27"/>
-      <c r="AR8" s="27"/>
-      <c r="AS8" s="27"/>
-      <c r="AT8" s="27"/>
-      <c r="AU8" s="27"/>
-      <c r="AV8" s="27"/>
-      <c r="AW8" s="27"/>
-      <c r="AX8" s="27"/>
-      <c r="AY8" s="27"/>
-      <c r="AZ8" s="27"/>
-      <c r="BA8" s="27"/>
-      <c r="BB8" s="27"/>
-      <c r="BC8" s="27"/>
-      <c r="BD8" s="28"/>
+      <c r="AH8" s="86"/>
+      <c r="AI8" s="86"/>
+      <c r="AJ8" s="86"/>
+      <c r="AK8" s="86"/>
+      <c r="AL8" s="86"/>
+      <c r="AM8" s="86"/>
+      <c r="AN8" s="86"/>
+      <c r="AO8" s="86"/>
+      <c r="AP8" s="86"/>
+      <c r="AQ8" s="86"/>
+      <c r="AR8" s="86"/>
+      <c r="AS8" s="86"/>
+      <c r="AT8" s="86"/>
+      <c r="AU8" s="86"/>
+      <c r="AV8" s="86"/>
+      <c r="AW8" s="86"/>
+      <c r="AX8" s="86"/>
+      <c r="AY8" s="86"/>
+      <c r="AZ8" s="86"/>
+      <c r="BA8" s="86"/>
+      <c r="BB8" s="86"/>
+      <c r="BC8" s="86"/>
+      <c r="BD8" s="87"/>
     </row>
     <row r="9" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="38" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="38" t="s">
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="30"/>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="30"/>
-      <c r="AM9" s="30"/>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="30"/>
-      <c r="AQ9" s="30"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="30"/>
-      <c r="AT9" s="30"/>
-      <c r="AU9" s="30"/>
-      <c r="AV9" s="30"/>
-      <c r="AW9" s="30"/>
-      <c r="AX9" s="30"/>
-      <c r="AY9" s="30"/>
-      <c r="AZ9" s="30"/>
-      <c r="BA9" s="30"/>
-      <c r="BB9" s="30"/>
-      <c r="BC9" s="30"/>
-      <c r="BD9" s="31"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="54"/>
+      <c r="AJ9" s="54"/>
+      <c r="AK9" s="54"/>
+      <c r="AL9" s="54"/>
+      <c r="AM9" s="54"/>
+      <c r="AN9" s="54"/>
+      <c r="AO9" s="54"/>
+      <c r="AP9" s="54"/>
+      <c r="AQ9" s="54"/>
+      <c r="AR9" s="54"/>
+      <c r="AS9" s="54"/>
+      <c r="AT9" s="54"/>
+      <c r="AU9" s="54"/>
+      <c r="AV9" s="54"/>
+      <c r="AW9" s="54"/>
+      <c r="AX9" s="54"/>
+      <c r="AY9" s="54"/>
+      <c r="AZ9" s="54"/>
+      <c r="BA9" s="54"/>
+      <c r="BB9" s="54"/>
+      <c r="BC9" s="54"/>
+      <c r="BD9" s="55"/>
     </row>
     <row r="10" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="32" t="s">
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="32" t="s">
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="35"/>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="36"/>
-      <c r="AJ10" s="36"/>
-      <c r="AK10" s="36"/>
-      <c r="AL10" s="36"/>
-      <c r="AM10" s="36"/>
-      <c r="AN10" s="36"/>
-      <c r="AO10" s="36"/>
-      <c r="AP10" s="36"/>
-      <c r="AQ10" s="36"/>
-      <c r="AR10" s="36"/>
-      <c r="AS10" s="36"/>
-      <c r="AT10" s="36"/>
-      <c r="AU10" s="36"/>
-      <c r="AV10" s="36"/>
-      <c r="AW10" s="36"/>
-      <c r="AX10" s="36"/>
-      <c r="AY10" s="36"/>
-      <c r="AZ10" s="36"/>
-      <c r="BA10" s="36"/>
-      <c r="BB10" s="36"/>
-      <c r="BC10" s="36"/>
-      <c r="BD10" s="37"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="84"/>
+      <c r="AI10" s="84"/>
+      <c r="AJ10" s="84"/>
+      <c r="AK10" s="84"/>
+      <c r="AL10" s="84"/>
+      <c r="AM10" s="84"/>
+      <c r="AN10" s="84"/>
+      <c r="AO10" s="84"/>
+      <c r="AP10" s="84"/>
+      <c r="AQ10" s="84"/>
+      <c r="AR10" s="84"/>
+      <c r="AS10" s="84"/>
+      <c r="AT10" s="84"/>
+      <c r="AU10" s="84"/>
+      <c r="AV10" s="84"/>
+      <c r="AW10" s="84"/>
+      <c r="AX10" s="84"/>
+      <c r="AY10" s="84"/>
+      <c r="AZ10" s="84"/>
+      <c r="BA10" s="84"/>
+      <c r="BB10" s="84"/>
+      <c r="BC10" s="84"/>
+      <c r="BD10" s="85"/>
     </row>
     <row r="11" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="59"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="23" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="23" t="s">
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="24"/>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="27"/>
-      <c r="AI11" s="27"/>
-      <c r="AJ11" s="27"/>
-      <c r="AK11" s="27"/>
-      <c r="AL11" s="27"/>
-      <c r="AM11" s="27"/>
-      <c r="AN11" s="27"/>
-      <c r="AO11" s="27"/>
-      <c r="AP11" s="27"/>
-      <c r="AQ11" s="27"/>
-      <c r="AR11" s="27"/>
-      <c r="AS11" s="27"/>
-      <c r="AT11" s="27"/>
-      <c r="AU11" s="27"/>
-      <c r="AV11" s="27"/>
-      <c r="AW11" s="27"/>
-      <c r="AX11" s="27"/>
-      <c r="AY11" s="27"/>
-      <c r="AZ11" s="27"/>
-      <c r="BA11" s="27"/>
-      <c r="BB11" s="27"/>
-      <c r="BC11" s="27"/>
-      <c r="BD11" s="28"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="43"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="86"/>
+      <c r="AI11" s="86"/>
+      <c r="AJ11" s="86"/>
+      <c r="AK11" s="86"/>
+      <c r="AL11" s="86"/>
+      <c r="AM11" s="86"/>
+      <c r="AN11" s="86"/>
+      <c r="AO11" s="86"/>
+      <c r="AP11" s="86"/>
+      <c r="AQ11" s="86"/>
+      <c r="AR11" s="86"/>
+      <c r="AS11" s="86"/>
+      <c r="AT11" s="86"/>
+      <c r="AU11" s="86"/>
+      <c r="AV11" s="86"/>
+      <c r="AW11" s="86"/>
+      <c r="AX11" s="86"/>
+      <c r="AY11" s="86"/>
+      <c r="AZ11" s="86"/>
+      <c r="BA11" s="86"/>
+      <c r="BB11" s="86"/>
+      <c r="BC11" s="86"/>
+      <c r="BD11" s="87"/>
     </row>
     <row r="12" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="74" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="38" t="s">
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="38" t="s">
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47"/>
+      <c r="AD12" s="47"/>
+      <c r="AE12" s="47"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="39"/>
-      <c r="AJ12" s="39"/>
-      <c r="AK12" s="39"/>
-      <c r="AL12" s="39"/>
-      <c r="AM12" s="39"/>
-      <c r="AN12" s="39"/>
-      <c r="AO12" s="39"/>
-      <c r="AP12" s="39"/>
-      <c r="AQ12" s="39"/>
-      <c r="AR12" s="39"/>
-      <c r="AS12" s="39"/>
-      <c r="AT12" s="39"/>
-      <c r="AU12" s="39"/>
-      <c r="AV12" s="39"/>
-      <c r="AW12" s="39"/>
-      <c r="AX12" s="39"/>
-      <c r="AY12" s="39"/>
-      <c r="AZ12" s="39"/>
-      <c r="BA12" s="39"/>
-      <c r="BB12" s="39"/>
-      <c r="BC12" s="39"/>
-      <c r="BD12" s="40"/>
+      <c r="AH12" s="47"/>
+      <c r="AI12" s="47"/>
+      <c r="AJ12" s="47"/>
+      <c r="AK12" s="47"/>
+      <c r="AL12" s="47"/>
+      <c r="AM12" s="47"/>
+      <c r="AN12" s="47"/>
+      <c r="AO12" s="47"/>
+      <c r="AP12" s="47"/>
+      <c r="AQ12" s="47"/>
+      <c r="AR12" s="47"/>
+      <c r="AS12" s="47"/>
+      <c r="AT12" s="47"/>
+      <c r="AU12" s="47"/>
+      <c r="AV12" s="47"/>
+      <c r="AW12" s="47"/>
+      <c r="AX12" s="47"/>
+      <c r="AY12" s="47"/>
+      <c r="AZ12" s="47"/>
+      <c r="BA12" s="47"/>
+      <c r="BB12" s="47"/>
+      <c r="BC12" s="47"/>
+      <c r="BD12" s="48"/>
     </row>
     <row r="13" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="65" t="s">
+      <c r="B13" s="75"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="32" t="s">
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="32" t="s">
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="AH13" s="33"/>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="33"/>
-      <c r="AL13" s="33"/>
-      <c r="AM13" s="33"/>
-      <c r="AN13" s="33"/>
-      <c r="AO13" s="33"/>
-      <c r="AP13" s="33"/>
-      <c r="AQ13" s="33"/>
-      <c r="AR13" s="33"/>
-      <c r="AS13" s="33"/>
-      <c r="AT13" s="33"/>
-      <c r="AU13" s="33"/>
-      <c r="AV13" s="33"/>
-      <c r="AW13" s="33"/>
-      <c r="AX13" s="33"/>
-      <c r="AY13" s="33"/>
-      <c r="AZ13" s="33"/>
-      <c r="BA13" s="33"/>
-      <c r="BB13" s="33"/>
-      <c r="BC13" s="33"/>
-      <c r="BD13" s="34"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="40"/>
+      <c r="AK13" s="40"/>
+      <c r="AL13" s="40"/>
+      <c r="AM13" s="40"/>
+      <c r="AN13" s="40"/>
+      <c r="AO13" s="40"/>
+      <c r="AP13" s="40"/>
+      <c r="AQ13" s="40"/>
+      <c r="AR13" s="40"/>
+      <c r="AS13" s="40"/>
+      <c r="AT13" s="40"/>
+      <c r="AU13" s="40"/>
+      <c r="AV13" s="40"/>
+      <c r="AW13" s="40"/>
+      <c r="AX13" s="40"/>
+      <c r="AY13" s="40"/>
+      <c r="AZ13" s="40"/>
+      <c r="BA13" s="40"/>
+      <c r="BB13" s="40"/>
+      <c r="BC13" s="40"/>
+      <c r="BD13" s="41"/>
     </row>
     <row r="14" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="65" t="s">
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="32" t="s">
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="34"/>
-      <c r="AG14" s="32"/>
-      <c r="AH14" s="33"/>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="33"/>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="33"/>
-      <c r="AO14" s="33"/>
-      <c r="AP14" s="33"/>
-      <c r="AQ14" s="33"/>
-      <c r="AR14" s="33"/>
-      <c r="AS14" s="33"/>
-      <c r="AT14" s="33"/>
-      <c r="AU14" s="33"/>
-      <c r="AV14" s="33"/>
-      <c r="AW14" s="33"/>
-      <c r="AX14" s="33"/>
-      <c r="AY14" s="33"/>
-      <c r="AZ14" s="33"/>
-      <c r="BA14" s="33"/>
-      <c r="BB14" s="33"/>
-      <c r="BC14" s="33"/>
-      <c r="BD14" s="34"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="40"/>
+      <c r="AI14" s="40"/>
+      <c r="AJ14" s="40"/>
+      <c r="AK14" s="40"/>
+      <c r="AL14" s="40"/>
+      <c r="AM14" s="40"/>
+      <c r="AN14" s="40"/>
+      <c r="AO14" s="40"/>
+      <c r="AP14" s="40"/>
+      <c r="AQ14" s="40"/>
+      <c r="AR14" s="40"/>
+      <c r="AS14" s="40"/>
+      <c r="AT14" s="40"/>
+      <c r="AU14" s="40"/>
+      <c r="AV14" s="40"/>
+      <c r="AW14" s="40"/>
+      <c r="AX14" s="40"/>
+      <c r="AY14" s="40"/>
+      <c r="AZ14" s="40"/>
+      <c r="BA14" s="40"/>
+      <c r="BB14" s="40"/>
+      <c r="BC14" s="40"/>
+      <c r="BD14" s="41"/>
     </row>
     <row r="15" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="65" t="s">
+      <c r="B15" s="75"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="32" t="s">
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="33"/>
-      <c r="AJ15" s="33"/>
-      <c r="AK15" s="33"/>
-      <c r="AL15" s="33"/>
-      <c r="AM15" s="33"/>
-      <c r="AN15" s="33"/>
-      <c r="AO15" s="33"/>
-      <c r="AP15" s="33"/>
-      <c r="AQ15" s="33"/>
-      <c r="AR15" s="33"/>
-      <c r="AS15" s="33"/>
-      <c r="AT15" s="33"/>
-      <c r="AU15" s="33"/>
-      <c r="AV15" s="33"/>
-      <c r="AW15" s="33"/>
-      <c r="AX15" s="33"/>
-      <c r="AY15" s="33"/>
-      <c r="AZ15" s="33"/>
-      <c r="BA15" s="33"/>
-      <c r="BB15" s="33"/>
-      <c r="BC15" s="33"/>
-      <c r="BD15" s="34"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="49"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="40"/>
+      <c r="AJ15" s="40"/>
+      <c r="AK15" s="40"/>
+      <c r="AL15" s="40"/>
+      <c r="AM15" s="40"/>
+      <c r="AN15" s="40"/>
+      <c r="AO15" s="40"/>
+      <c r="AP15" s="40"/>
+      <c r="AQ15" s="40"/>
+      <c r="AR15" s="40"/>
+      <c r="AS15" s="40"/>
+      <c r="AT15" s="40"/>
+      <c r="AU15" s="40"/>
+      <c r="AV15" s="40"/>
+      <c r="AW15" s="40"/>
+      <c r="AX15" s="40"/>
+      <c r="AY15" s="40"/>
+      <c r="AZ15" s="40"/>
+      <c r="BA15" s="40"/>
+      <c r="BB15" s="40"/>
+      <c r="BC15" s="40"/>
+      <c r="BD15" s="41"/>
     </row>
     <row r="16" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="65" t="s">
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="32" t="s">
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="33"/>
-      <c r="AI16" s="33"/>
-      <c r="AJ16" s="33"/>
-      <c r="AK16" s="33"/>
-      <c r="AL16" s="33"/>
-      <c r="AM16" s="33"/>
-      <c r="AN16" s="33"/>
-      <c r="AO16" s="33"/>
-      <c r="AP16" s="33"/>
-      <c r="AQ16" s="33"/>
-      <c r="AR16" s="33"/>
-      <c r="AS16" s="33"/>
-      <c r="AT16" s="33"/>
-      <c r="AU16" s="33"/>
-      <c r="AV16" s="33"/>
-      <c r="AW16" s="33"/>
-      <c r="AX16" s="33"/>
-      <c r="AY16" s="33"/>
-      <c r="AZ16" s="33"/>
-      <c r="BA16" s="33"/>
-      <c r="BB16" s="33"/>
-      <c r="BC16" s="33"/>
-      <c r="BD16" s="34"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="49"/>
+      <c r="AH16" s="40"/>
+      <c r="AI16" s="40"/>
+      <c r="AJ16" s="40"/>
+      <c r="AK16" s="40"/>
+      <c r="AL16" s="40"/>
+      <c r="AM16" s="40"/>
+      <c r="AN16" s="40"/>
+      <c r="AO16" s="40"/>
+      <c r="AP16" s="40"/>
+      <c r="AQ16" s="40"/>
+      <c r="AR16" s="40"/>
+      <c r="AS16" s="40"/>
+      <c r="AT16" s="40"/>
+      <c r="AU16" s="40"/>
+      <c r="AV16" s="40"/>
+      <c r="AW16" s="40"/>
+      <c r="AX16" s="40"/>
+      <c r="AY16" s="40"/>
+      <c r="AZ16" s="40"/>
+      <c r="BA16" s="40"/>
+      <c r="BB16" s="40"/>
+      <c r="BC16" s="40"/>
+      <c r="BD16" s="41"/>
     </row>
     <row r="17" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="65" t="s">
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="32" t="s">
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="32"/>
-      <c r="AH17" s="33"/>
-      <c r="AI17" s="33"/>
-      <c r="AJ17" s="33"/>
-      <c r="AK17" s="33"/>
-      <c r="AL17" s="33"/>
-      <c r="AM17" s="33"/>
-      <c r="AN17" s="33"/>
-      <c r="AO17" s="33"/>
-      <c r="AP17" s="33"/>
-      <c r="AQ17" s="33"/>
-      <c r="AR17" s="33"/>
-      <c r="AS17" s="33"/>
-      <c r="AT17" s="33"/>
-      <c r="AU17" s="33"/>
-      <c r="AV17" s="33"/>
-      <c r="AW17" s="33"/>
-      <c r="AX17" s="33"/>
-      <c r="AY17" s="33"/>
-      <c r="AZ17" s="33"/>
-      <c r="BA17" s="33"/>
-      <c r="BB17" s="33"/>
-      <c r="BC17" s="33"/>
-      <c r="BD17" s="34"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="49"/>
+      <c r="AH17" s="40"/>
+      <c r="AI17" s="40"/>
+      <c r="AJ17" s="40"/>
+      <c r="AK17" s="40"/>
+      <c r="AL17" s="40"/>
+      <c r="AM17" s="40"/>
+      <c r="AN17" s="40"/>
+      <c r="AO17" s="40"/>
+      <c r="AP17" s="40"/>
+      <c r="AQ17" s="40"/>
+      <c r="AR17" s="40"/>
+      <c r="AS17" s="40"/>
+      <c r="AT17" s="40"/>
+      <c r="AU17" s="40"/>
+      <c r="AV17" s="40"/>
+      <c r="AW17" s="40"/>
+      <c r="AX17" s="40"/>
+      <c r="AY17" s="40"/>
+      <c r="AZ17" s="40"/>
+      <c r="BA17" s="40"/>
+      <c r="BB17" s="40"/>
+      <c r="BC17" s="40"/>
+      <c r="BD17" s="41"/>
     </row>
     <row r="18" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="65" t="s">
+      <c r="B18" s="75"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="32" t="s">
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="33"/>
-      <c r="AI18" s="33"/>
-      <c r="AJ18" s="33"/>
-      <c r="AK18" s="33"/>
-      <c r="AL18" s="33"/>
-      <c r="AM18" s="33"/>
-      <c r="AN18" s="33"/>
-      <c r="AO18" s="33"/>
-      <c r="AP18" s="33"/>
-      <c r="AQ18" s="33"/>
-      <c r="AR18" s="33"/>
-      <c r="AS18" s="33"/>
-      <c r="AT18" s="33"/>
-      <c r="AU18" s="33"/>
-      <c r="AV18" s="33"/>
-      <c r="AW18" s="33"/>
-      <c r="AX18" s="33"/>
-      <c r="AY18" s="33"/>
-      <c r="AZ18" s="33"/>
-      <c r="BA18" s="33"/>
-      <c r="BB18" s="33"/>
-      <c r="BC18" s="33"/>
-      <c r="BD18" s="34"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="49"/>
+      <c r="AH18" s="40"/>
+      <c r="AI18" s="40"/>
+      <c r="AJ18" s="40"/>
+      <c r="AK18" s="40"/>
+      <c r="AL18" s="40"/>
+      <c r="AM18" s="40"/>
+      <c r="AN18" s="40"/>
+      <c r="AO18" s="40"/>
+      <c r="AP18" s="40"/>
+      <c r="AQ18" s="40"/>
+      <c r="AR18" s="40"/>
+      <c r="AS18" s="40"/>
+      <c r="AT18" s="40"/>
+      <c r="AU18" s="40"/>
+      <c r="AV18" s="40"/>
+      <c r="AW18" s="40"/>
+      <c r="AX18" s="40"/>
+      <c r="AY18" s="40"/>
+      <c r="AZ18" s="40"/>
+      <c r="BA18" s="40"/>
+      <c r="BB18" s="40"/>
+      <c r="BC18" s="40"/>
+      <c r="BD18" s="41"/>
     </row>
     <row r="19" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="56"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="65" t="s">
+      <c r="B19" s="75"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="32" t="s">
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="32"/>
-      <c r="AH19" s="33"/>
-      <c r="AI19" s="33"/>
-      <c r="AJ19" s="33"/>
-      <c r="AK19" s="33"/>
-      <c r="AL19" s="33"/>
-      <c r="AM19" s="33"/>
-      <c r="AN19" s="33"/>
-      <c r="AO19" s="33"/>
-      <c r="AP19" s="33"/>
-      <c r="AQ19" s="33"/>
-      <c r="AR19" s="33"/>
-      <c r="AS19" s="33"/>
-      <c r="AT19" s="33"/>
-      <c r="AU19" s="33"/>
-      <c r="AV19" s="33"/>
-      <c r="AW19" s="33"/>
-      <c r="AX19" s="33"/>
-      <c r="AY19" s="33"/>
-      <c r="AZ19" s="33"/>
-      <c r="BA19" s="33"/>
-      <c r="BB19" s="33"/>
-      <c r="BC19" s="33"/>
-      <c r="BD19" s="34"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="49"/>
+      <c r="AH19" s="40"/>
+      <c r="AI19" s="40"/>
+      <c r="AJ19" s="40"/>
+      <c r="AK19" s="40"/>
+      <c r="AL19" s="40"/>
+      <c r="AM19" s="40"/>
+      <c r="AN19" s="40"/>
+      <c r="AO19" s="40"/>
+      <c r="AP19" s="40"/>
+      <c r="AQ19" s="40"/>
+      <c r="AR19" s="40"/>
+      <c r="AS19" s="40"/>
+      <c r="AT19" s="40"/>
+      <c r="AU19" s="40"/>
+      <c r="AV19" s="40"/>
+      <c r="AW19" s="40"/>
+      <c r="AX19" s="40"/>
+      <c r="AY19" s="40"/>
+      <c r="AZ19" s="40"/>
+      <c r="BA19" s="40"/>
+      <c r="BB19" s="40"/>
+      <c r="BC19" s="40"/>
+      <c r="BD19" s="41"/>
     </row>
     <row r="20" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="68" t="s">
+      <c r="B20" s="75"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="32" t="s">
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="32"/>
-      <c r="AH20" s="33"/>
-      <c r="AI20" s="33"/>
-      <c r="AJ20" s="33"/>
-      <c r="AK20" s="33"/>
-      <c r="AL20" s="33"/>
-      <c r="AM20" s="33"/>
-      <c r="AN20" s="33"/>
-      <c r="AO20" s="33"/>
-      <c r="AP20" s="33"/>
-      <c r="AQ20" s="33"/>
-      <c r="AR20" s="33"/>
-      <c r="AS20" s="33"/>
-      <c r="AT20" s="33"/>
-      <c r="AU20" s="33"/>
-      <c r="AV20" s="33"/>
-      <c r="AW20" s="33"/>
-      <c r="AX20" s="33"/>
-      <c r="AY20" s="33"/>
-      <c r="AZ20" s="33"/>
-      <c r="BA20" s="33"/>
-      <c r="BB20" s="33"/>
-      <c r="BC20" s="33"/>
-      <c r="BD20" s="34"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="49"/>
+      <c r="AH20" s="40"/>
+      <c r="AI20" s="40"/>
+      <c r="AJ20" s="40"/>
+      <c r="AK20" s="40"/>
+      <c r="AL20" s="40"/>
+      <c r="AM20" s="40"/>
+      <c r="AN20" s="40"/>
+      <c r="AO20" s="40"/>
+      <c r="AP20" s="40"/>
+      <c r="AQ20" s="40"/>
+      <c r="AR20" s="40"/>
+      <c r="AS20" s="40"/>
+      <c r="AT20" s="40"/>
+      <c r="AU20" s="40"/>
+      <c r="AV20" s="40"/>
+      <c r="AW20" s="40"/>
+      <c r="AX20" s="40"/>
+      <c r="AY20" s="40"/>
+      <c r="AZ20" s="40"/>
+      <c r="BA20" s="40"/>
+      <c r="BB20" s="40"/>
+      <c r="BC20" s="40"/>
+      <c r="BD20" s="41"/>
     </row>
     <row r="21" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="68" t="s">
+      <c r="B21" s="75"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="32" t="s">
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="32"/>
-      <c r="AH21" s="33"/>
-      <c r="AI21" s="33"/>
-      <c r="AJ21" s="33"/>
-      <c r="AK21" s="33"/>
-      <c r="AL21" s="33"/>
-      <c r="AM21" s="33"/>
-      <c r="AN21" s="33"/>
-      <c r="AO21" s="33"/>
-      <c r="AP21" s="33"/>
-      <c r="AQ21" s="33"/>
-      <c r="AR21" s="33"/>
-      <c r="AS21" s="33"/>
-      <c r="AT21" s="33"/>
-      <c r="AU21" s="33"/>
-      <c r="AV21" s="33"/>
-      <c r="AW21" s="33"/>
-      <c r="AX21" s="33"/>
-      <c r="AY21" s="33"/>
-      <c r="AZ21" s="33"/>
-      <c r="BA21" s="33"/>
-      <c r="BB21" s="33"/>
-      <c r="BC21" s="33"/>
-      <c r="BD21" s="34"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="49"/>
+      <c r="AH21" s="40"/>
+      <c r="AI21" s="40"/>
+      <c r="AJ21" s="40"/>
+      <c r="AK21" s="40"/>
+      <c r="AL21" s="40"/>
+      <c r="AM21" s="40"/>
+      <c r="AN21" s="40"/>
+      <c r="AO21" s="40"/>
+      <c r="AP21" s="40"/>
+      <c r="AQ21" s="40"/>
+      <c r="AR21" s="40"/>
+      <c r="AS21" s="40"/>
+      <c r="AT21" s="40"/>
+      <c r="AU21" s="40"/>
+      <c r="AV21" s="40"/>
+      <c r="AW21" s="40"/>
+      <c r="AX21" s="40"/>
+      <c r="AY21" s="40"/>
+      <c r="AZ21" s="40"/>
+      <c r="BA21" s="40"/>
+      <c r="BB21" s="40"/>
+      <c r="BC21" s="40"/>
+      <c r="BD21" s="41"/>
     </row>
     <row r="22" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="59"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="71" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="23" t="s">
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="83"/>
+      <c r="S22" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="23"/>
-      <c r="AH22" s="24"/>
-      <c r="AI22" s="24"/>
-      <c r="AJ22" s="24"/>
-      <c r="AK22" s="24"/>
-      <c r="AL22" s="24"/>
-      <c r="AM22" s="24"/>
-      <c r="AN22" s="24"/>
-      <c r="AO22" s="24"/>
-      <c r="AP22" s="24"/>
-      <c r="AQ22" s="24"/>
-      <c r="AR22" s="24"/>
-      <c r="AS22" s="24"/>
-      <c r="AT22" s="24"/>
-      <c r="AU22" s="24"/>
-      <c r="AV22" s="24"/>
-      <c r="AW22" s="24"/>
-      <c r="AX22" s="24"/>
-      <c r="AY22" s="24"/>
-      <c r="AZ22" s="24"/>
-      <c r="BA22" s="24"/>
-      <c r="BB22" s="24"/>
-      <c r="BC22" s="24"/>
-      <c r="BD22" s="25"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="43"/>
+      <c r="AE22" s="43"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="45"/>
+      <c r="AH22" s="43"/>
+      <c r="AI22" s="43"/>
+      <c r="AJ22" s="43"/>
+      <c r="AK22" s="43"/>
+      <c r="AL22" s="43"/>
+      <c r="AM22" s="43"/>
+      <c r="AN22" s="43"/>
+      <c r="AO22" s="43"/>
+      <c r="AP22" s="43"/>
+      <c r="AQ22" s="43"/>
+      <c r="AR22" s="43"/>
+      <c r="AS22" s="43"/>
+      <c r="AT22" s="43"/>
+      <c r="AU22" s="43"/>
+      <c r="AV22" s="43"/>
+      <c r="AW22" s="43"/>
+      <c r="AX22" s="43"/>
+      <c r="AY22" s="43"/>
+      <c r="AZ22" s="43"/>
+      <c r="BA22" s="43"/>
+      <c r="BB22" s="43"/>
+      <c r="BC22" s="43"/>
+      <c r="BD22" s="44"/>
     </row>
     <row r="23" spans="2:56" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="80" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="80" t="s">
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="81"/>
-      <c r="W23" s="81"/>
-      <c r="X23" s="81"/>
-      <c r="Y23" s="81"/>
-      <c r="Z23" s="81"/>
-      <c r="AA23" s="81"/>
-      <c r="AB23" s="81"/>
-      <c r="AC23" s="81"/>
-      <c r="AD23" s="81"/>
-      <c r="AE23" s="81"/>
-      <c r="AF23" s="82"/>
-      <c r="AG23" s="80"/>
-      <c r="AH23" s="81"/>
-      <c r="AI23" s="81"/>
-      <c r="AJ23" s="81"/>
-      <c r="AK23" s="81"/>
-      <c r="AL23" s="81"/>
-      <c r="AM23" s="81"/>
-      <c r="AN23" s="81"/>
-      <c r="AO23" s="81"/>
-      <c r="AP23" s="81"/>
-      <c r="AQ23" s="81"/>
-      <c r="AR23" s="81"/>
-      <c r="AS23" s="81"/>
-      <c r="AT23" s="81"/>
-      <c r="AU23" s="81"/>
-      <c r="AV23" s="81"/>
-      <c r="AW23" s="81"/>
-      <c r="AX23" s="81"/>
-      <c r="AY23" s="81"/>
-      <c r="AZ23" s="81"/>
-      <c r="BA23" s="81"/>
-      <c r="BB23" s="81"/>
-      <c r="BC23" s="81"/>
-      <c r="BD23" s="82"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="26"/>
+      <c r="AM23" s="26"/>
+      <c r="AN23" s="26"/>
+      <c r="AO23" s="26"/>
+      <c r="AP23" s="26"/>
+      <c r="AQ23" s="26"/>
+      <c r="AR23" s="26"/>
+      <c r="AS23" s="26"/>
+      <c r="AT23" s="26"/>
+      <c r="AU23" s="26"/>
+      <c r="AV23" s="26"/>
+      <c r="AW23" s="26"/>
+      <c r="AX23" s="26"/>
+      <c r="AY23" s="26"/>
+      <c r="AZ23" s="26"/>
+      <c r="BA23" s="26"/>
+      <c r="BB23" s="26"/>
+      <c r="BC23" s="26"/>
+      <c r="BD23" s="27"/>
     </row>
     <row r="24" spans="2:56" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="59"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="83"/>
-      <c r="T24" s="84"/>
-      <c r="U24" s="84"/>
-      <c r="V24" s="84"/>
-      <c r="W24" s="84"/>
-      <c r="X24" s="84"/>
-      <c r="Y24" s="84"/>
-      <c r="Z24" s="84"/>
-      <c r="AA24" s="84"/>
-      <c r="AB24" s="84"/>
-      <c r="AC24" s="84"/>
-      <c r="AD24" s="84"/>
-      <c r="AE24" s="84"/>
-      <c r="AF24" s="85"/>
-      <c r="AG24" s="83"/>
-      <c r="AH24" s="84"/>
-      <c r="AI24" s="84"/>
-      <c r="AJ24" s="84"/>
-      <c r="AK24" s="84"/>
-      <c r="AL24" s="84"/>
-      <c r="AM24" s="84"/>
-      <c r="AN24" s="84"/>
-      <c r="AO24" s="84"/>
-      <c r="AP24" s="84"/>
-      <c r="AQ24" s="84"/>
-      <c r="AR24" s="84"/>
-      <c r="AS24" s="84"/>
-      <c r="AT24" s="84"/>
-      <c r="AU24" s="84"/>
-      <c r="AV24" s="84"/>
-      <c r="AW24" s="84"/>
-      <c r="AX24" s="84"/>
-      <c r="AY24" s="84"/>
-      <c r="AZ24" s="84"/>
-      <c r="BA24" s="84"/>
-      <c r="BB24" s="84"/>
-      <c r="BC24" s="84"/>
-      <c r="BD24" s="85"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29"/>
+      <c r="AK24" s="29"/>
+      <c r="AL24" s="29"/>
+      <c r="AM24" s="29"/>
+      <c r="AN24" s="29"/>
+      <c r="AO24" s="29"/>
+      <c r="AP24" s="29"/>
+      <c r="AQ24" s="29"/>
+      <c r="AR24" s="29"/>
+      <c r="AS24" s="29"/>
+      <c r="AT24" s="29"/>
+      <c r="AU24" s="29"/>
+      <c r="AV24" s="29"/>
+      <c r="AW24" s="29"/>
+      <c r="AX24" s="29"/>
+      <c r="AY24" s="29"/>
+      <c r="AZ24" s="29"/>
+      <c r="BA24" s="29"/>
+      <c r="BB24" s="29"/>
+      <c r="BC24" s="29"/>
+      <c r="BD24" s="30"/>
     </row>
     <row r="25" spans="2:56" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="80" t="s">
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="86"/>
-      <c r="X25" s="86"/>
-      <c r="Y25" s="86"/>
-      <c r="Z25" s="86"/>
-      <c r="AA25" s="86"/>
-      <c r="AB25" s="86"/>
-      <c r="AC25" s="86"/>
-      <c r="AD25" s="86"/>
-      <c r="AE25" s="86"/>
-      <c r="AF25" s="86"/>
-      <c r="AG25" s="86"/>
-      <c r="AH25" s="86"/>
-      <c r="AI25" s="86"/>
-      <c r="AJ25" s="86"/>
-      <c r="AK25" s="86"/>
-      <c r="AL25" s="86"/>
-      <c r="AM25" s="86"/>
-      <c r="AN25" s="86"/>
-      <c r="AO25" s="86"/>
-      <c r="AP25" s="86"/>
-      <c r="AQ25" s="86"/>
-      <c r="AR25" s="86"/>
-      <c r="AS25" s="86"/>
-      <c r="AT25" s="86"/>
-      <c r="AU25" s="86"/>
-      <c r="AV25" s="86"/>
-      <c r="AW25" s="86"/>
-      <c r="AX25" s="86"/>
-      <c r="AY25" s="86"/>
-      <c r="AZ25" s="86"/>
-      <c r="BA25" s="86"/>
-      <c r="BB25" s="86"/>
-      <c r="BC25" s="86"/>
-      <c r="BD25" s="86"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="31"/>
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="31"/>
+      <c r="AG25" s="31"/>
+      <c r="AH25" s="31"/>
+      <c r="AI25" s="31"/>
+      <c r="AJ25" s="31"/>
+      <c r="AK25" s="31"/>
+      <c r="AL25" s="31"/>
+      <c r="AM25" s="31"/>
+      <c r="AN25" s="31"/>
+      <c r="AO25" s="31"/>
+      <c r="AP25" s="31"/>
+      <c r="AQ25" s="31"/>
+      <c r="AR25" s="31"/>
+      <c r="AS25" s="31"/>
+      <c r="AT25" s="31"/>
+      <c r="AU25" s="31"/>
+      <c r="AV25" s="31"/>
+      <c r="AW25" s="31"/>
+      <c r="AX25" s="31"/>
+      <c r="AY25" s="31"/>
+      <c r="AZ25" s="31"/>
+      <c r="BA25" s="31"/>
+      <c r="BB25" s="31"/>
+      <c r="BC25" s="31"/>
+      <c r="BD25" s="31"/>
     </row>
     <row r="26" spans="2:56" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="85"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="87"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="87"/>
-      <c r="AA26" s="87"/>
-      <c r="AB26" s="87"/>
-      <c r="AC26" s="87"/>
-      <c r="AD26" s="87"/>
-      <c r="AE26" s="87"/>
-      <c r="AF26" s="87"/>
-      <c r="AG26" s="87"/>
-      <c r="AH26" s="87"/>
-      <c r="AI26" s="87"/>
-      <c r="AJ26" s="87"/>
-      <c r="AK26" s="87"/>
-      <c r="AL26" s="87"/>
-      <c r="AM26" s="87"/>
-      <c r="AN26" s="87"/>
-      <c r="AO26" s="87"/>
-      <c r="AP26" s="87"/>
-      <c r="AQ26" s="87"/>
-      <c r="AR26" s="87"/>
-      <c r="AS26" s="87"/>
-      <c r="AT26" s="87"/>
-      <c r="AU26" s="87"/>
-      <c r="AV26" s="87"/>
-      <c r="AW26" s="87"/>
-      <c r="AX26" s="87"/>
-      <c r="AY26" s="87"/>
-      <c r="AZ26" s="87"/>
-      <c r="BA26" s="87"/>
-      <c r="BB26" s="87"/>
-      <c r="BC26" s="87"/>
-      <c r="BD26" s="87"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="32"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="32"/>
+      <c r="AK26" s="32"/>
+      <c r="AL26" s="32"/>
+      <c r="AM26" s="32"/>
+      <c r="AN26" s="32"/>
+      <c r="AO26" s="32"/>
+      <c r="AP26" s="32"/>
+      <c r="AQ26" s="32"/>
+      <c r="AR26" s="32"/>
+      <c r="AS26" s="32"/>
+      <c r="AT26" s="32"/>
+      <c r="AU26" s="32"/>
+      <c r="AV26" s="32"/>
+      <c r="AW26" s="32"/>
+      <c r="AX26" s="32"/>
+      <c r="AY26" s="32"/>
+      <c r="AZ26" s="32"/>
+      <c r="BA26" s="32"/>
+      <c r="BB26" s="32"/>
+      <c r="BC26" s="32"/>
+      <c r="BD26" s="32"/>
     </row>
     <row r="31" spans="2:56" x14ac:dyDescent="0.15">
       <c r="F31" s="2" t="s">
@@ -3901,29 +3901,42 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="F25:R26"/>
-    <mergeCell ref="S25:AF26"/>
-    <mergeCell ref="AG25:BD26"/>
-    <mergeCell ref="B23:E24"/>
-    <mergeCell ref="F23:R24"/>
-    <mergeCell ref="S23:AF24"/>
-    <mergeCell ref="AG23:BD24"/>
-    <mergeCell ref="S4:AF4"/>
-    <mergeCell ref="F8:R8"/>
-    <mergeCell ref="S8:AF8"/>
-    <mergeCell ref="S22:AF22"/>
-    <mergeCell ref="S12:AF12"/>
-    <mergeCell ref="S21:AF21"/>
-    <mergeCell ref="S13:AF13"/>
-    <mergeCell ref="S14:AF14"/>
-    <mergeCell ref="S15:AF15"/>
-    <mergeCell ref="F6:R6"/>
-    <mergeCell ref="S6:AF6"/>
-    <mergeCell ref="F5:R5"/>
-    <mergeCell ref="S5:AF5"/>
-    <mergeCell ref="F7:R7"/>
-    <mergeCell ref="S7:AF7"/>
+    <mergeCell ref="AG22:BD22"/>
+    <mergeCell ref="AG8:BD8"/>
+    <mergeCell ref="AG9:BD9"/>
+    <mergeCell ref="AG11:BD11"/>
+    <mergeCell ref="S17:AF17"/>
+    <mergeCell ref="S18:AF18"/>
+    <mergeCell ref="S19:AF19"/>
+    <mergeCell ref="S20:AF20"/>
+    <mergeCell ref="S10:AF10"/>
+    <mergeCell ref="S11:AF11"/>
+    <mergeCell ref="AG20:BD20"/>
+    <mergeCell ref="AG21:BD21"/>
+    <mergeCell ref="AG15:BD15"/>
+    <mergeCell ref="AG16:BD16"/>
+    <mergeCell ref="AG17:BD17"/>
+    <mergeCell ref="AG18:BD18"/>
+    <mergeCell ref="AG19:BD19"/>
+    <mergeCell ref="AG4:BD4"/>
+    <mergeCell ref="AG10:BD10"/>
+    <mergeCell ref="AG12:BD12"/>
+    <mergeCell ref="AG13:BD13"/>
+    <mergeCell ref="AG14:BD14"/>
+    <mergeCell ref="AG6:BD6"/>
+    <mergeCell ref="AG5:BD5"/>
+    <mergeCell ref="AG7:BD7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E8"/>
+    <mergeCell ref="B9:E11"/>
+    <mergeCell ref="B12:E22"/>
+    <mergeCell ref="F2:R2"/>
+    <mergeCell ref="F17:R17"/>
+    <mergeCell ref="F18:R18"/>
+    <mergeCell ref="F19:R19"/>
+    <mergeCell ref="F20:R20"/>
+    <mergeCell ref="F22:R22"/>
+    <mergeCell ref="F21:R21"/>
     <mergeCell ref="S2:AF2"/>
     <mergeCell ref="AG2:BD2"/>
     <mergeCell ref="AG3:BD3"/>
@@ -3940,42 +3953,29 @@
     <mergeCell ref="S16:AF16"/>
     <mergeCell ref="S3:AF3"/>
     <mergeCell ref="S9:AF9"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E8"/>
-    <mergeCell ref="B9:E11"/>
-    <mergeCell ref="B12:E22"/>
-    <mergeCell ref="F2:R2"/>
-    <mergeCell ref="F17:R17"/>
-    <mergeCell ref="F18:R18"/>
-    <mergeCell ref="F19:R19"/>
-    <mergeCell ref="F20:R20"/>
-    <mergeCell ref="F22:R22"/>
-    <mergeCell ref="F21:R21"/>
-    <mergeCell ref="AG19:BD19"/>
-    <mergeCell ref="AG4:BD4"/>
-    <mergeCell ref="AG10:BD10"/>
-    <mergeCell ref="AG12:BD12"/>
-    <mergeCell ref="AG13:BD13"/>
-    <mergeCell ref="AG14:BD14"/>
-    <mergeCell ref="AG6:BD6"/>
-    <mergeCell ref="AG5:BD5"/>
-    <mergeCell ref="AG7:BD7"/>
-    <mergeCell ref="AG22:BD22"/>
-    <mergeCell ref="AG8:BD8"/>
-    <mergeCell ref="AG9:BD9"/>
-    <mergeCell ref="AG11:BD11"/>
-    <mergeCell ref="S17:AF17"/>
-    <mergeCell ref="S18:AF18"/>
-    <mergeCell ref="S19:AF19"/>
-    <mergeCell ref="S20:AF20"/>
-    <mergeCell ref="S10:AF10"/>
-    <mergeCell ref="S11:AF11"/>
-    <mergeCell ref="AG20:BD20"/>
-    <mergeCell ref="AG21:BD21"/>
-    <mergeCell ref="AG15:BD15"/>
-    <mergeCell ref="AG16:BD16"/>
-    <mergeCell ref="AG17:BD17"/>
-    <mergeCell ref="AG18:BD18"/>
+    <mergeCell ref="S4:AF4"/>
+    <mergeCell ref="F8:R8"/>
+    <mergeCell ref="S8:AF8"/>
+    <mergeCell ref="S22:AF22"/>
+    <mergeCell ref="S12:AF12"/>
+    <mergeCell ref="S21:AF21"/>
+    <mergeCell ref="S13:AF13"/>
+    <mergeCell ref="S14:AF14"/>
+    <mergeCell ref="S15:AF15"/>
+    <mergeCell ref="F6:R6"/>
+    <mergeCell ref="S6:AF6"/>
+    <mergeCell ref="F5:R5"/>
+    <mergeCell ref="S5:AF5"/>
+    <mergeCell ref="F7:R7"/>
+    <mergeCell ref="S7:AF7"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="F25:R26"/>
+    <mergeCell ref="S25:AF26"/>
+    <mergeCell ref="AG25:BD26"/>
+    <mergeCell ref="B23:E24"/>
+    <mergeCell ref="F23:R24"/>
+    <mergeCell ref="S23:AF24"/>
+    <mergeCell ref="AG23:BD24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3995,9 +3995,14 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4042,7 +4047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -4159,8 +4164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E66" sqref="B57:E66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5078,10 +5083,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5127,10 +5135,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5171,10 +5182,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="AJ17" sqref="AJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5272,10 +5286,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="AA40" sqref="AA40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5311,10 +5328,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="Z30" sqref="Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/lottery/file/彩票设计.xlsx
+++ b/lottery/file/彩票设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="12660" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20985" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="10" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:BK44"/>
+  <oleSize ref="A1:BL19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="141">
   <si>
     <t>双色球红球共有33个号码。一般来说，小号指01-16的号码，大号指17-33的号码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -563,6 +563,10 @@
   </si>
   <si>
     <t>CHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斜连码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +574,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,8 +649,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,6 +684,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="36">
     <border>
@@ -1122,7 +1147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1164,6 +1189,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1365,6 +1399,8 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2334,10 +2370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BD31"/>
+  <dimension ref="B1:BD32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:R13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2347,1258 +2383,1256 @@
   <sheetData>
     <row r="1" spans="2:56" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:56" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="50" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="50" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="50" t="s">
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51"/>
-      <c r="BB2" s="51"/>
-      <c r="BC2" s="51"/>
-      <c r="BD2" s="52"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="54"/>
+      <c r="BC2" s="54"/>
+      <c r="BD2" s="55"/>
     </row>
     <row r="3" spans="2:56" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="62" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="62" t="s">
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="53" t="s">
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="54"/>
-      <c r="AQ3" s="54"/>
-      <c r="AR3" s="54"/>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="54"/>
-      <c r="AY3" s="54"/>
-      <c r="AZ3" s="54"/>
-      <c r="BA3" s="54"/>
-      <c r="BB3" s="54"/>
-      <c r="BC3" s="54"/>
-      <c r="BD3" s="55"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="57"/>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="57"/>
+      <c r="BB3" s="57"/>
+      <c r="BC3" s="57"/>
+      <c r="BD3" s="58"/>
     </row>
     <row r="4" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="39" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="39" t="s">
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="39" t="s">
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="AH4" s="84"/>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="84"/>
-      <c r="AK4" s="84"/>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="84"/>
-      <c r="AO4" s="84"/>
-      <c r="AP4" s="84"/>
-      <c r="AQ4" s="84"/>
-      <c r="AR4" s="84"/>
-      <c r="AS4" s="84"/>
-      <c r="AT4" s="84"/>
-      <c r="AU4" s="84"/>
-      <c r="AV4" s="84"/>
-      <c r="AW4" s="84"/>
-      <c r="AX4" s="84"/>
-      <c r="AY4" s="84"/>
-      <c r="AZ4" s="84"/>
-      <c r="BA4" s="84"/>
-      <c r="BB4" s="84"/>
-      <c r="BC4" s="84"/>
-      <c r="BD4" s="85"/>
+      <c r="AH4" s="87"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="87"/>
+      <c r="AL4" s="87"/>
+      <c r="AM4" s="87"/>
+      <c r="AN4" s="87"/>
+      <c r="AO4" s="87"/>
+      <c r="AP4" s="87"/>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="87"/>
+      <c r="AS4" s="87"/>
+      <c r="AT4" s="87"/>
+      <c r="AU4" s="87"/>
+      <c r="AV4" s="87"/>
+      <c r="AW4" s="87"/>
+      <c r="AX4" s="87"/>
+      <c r="AY4" s="87"/>
+      <c r="AZ4" s="87"/>
+      <c r="BA4" s="87"/>
+      <c r="BB4" s="87"/>
+      <c r="BC4" s="87"/>
+      <c r="BD4" s="88"/>
     </row>
     <row r="5" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="39" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="39" t="s">
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="39" t="s">
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="AH5" s="84"/>
-      <c r="AI5" s="84"/>
-      <c r="AJ5" s="84"/>
-      <c r="AK5" s="84"/>
-      <c r="AL5" s="84"/>
-      <c r="AM5" s="84"/>
-      <c r="AN5" s="84"/>
-      <c r="AO5" s="84"/>
-      <c r="AP5" s="84"/>
-      <c r="AQ5" s="84"/>
-      <c r="AR5" s="84"/>
-      <c r="AS5" s="84"/>
-      <c r="AT5" s="84"/>
-      <c r="AU5" s="84"/>
-      <c r="AV5" s="84"/>
-      <c r="AW5" s="84"/>
-      <c r="AX5" s="84"/>
-      <c r="AY5" s="84"/>
-      <c r="AZ5" s="84"/>
-      <c r="BA5" s="84"/>
-      <c r="BB5" s="84"/>
-      <c r="BC5" s="84"/>
-      <c r="BD5" s="85"/>
+      <c r="AH5" s="87"/>
+      <c r="AI5" s="87"/>
+      <c r="AJ5" s="87"/>
+      <c r="AK5" s="87"/>
+      <c r="AL5" s="87"/>
+      <c r="AM5" s="87"/>
+      <c r="AN5" s="87"/>
+      <c r="AO5" s="87"/>
+      <c r="AP5" s="87"/>
+      <c r="AQ5" s="87"/>
+      <c r="AR5" s="87"/>
+      <c r="AS5" s="87"/>
+      <c r="AT5" s="87"/>
+      <c r="AU5" s="87"/>
+      <c r="AV5" s="87"/>
+      <c r="AW5" s="87"/>
+      <c r="AX5" s="87"/>
+      <c r="AY5" s="87"/>
+      <c r="AZ5" s="87"/>
+      <c r="BA5" s="87"/>
+      <c r="BB5" s="87"/>
+      <c r="BC5" s="87"/>
+      <c r="BD5" s="88"/>
     </row>
     <row r="6" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="39" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="39" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="41"/>
-      <c r="AG6" s="39" t="s">
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="AH6" s="84"/>
-      <c r="AI6" s="84"/>
-      <c r="AJ6" s="84"/>
-      <c r="AK6" s="84"/>
-      <c r="AL6" s="84"/>
-      <c r="AM6" s="84"/>
-      <c r="AN6" s="84"/>
-      <c r="AO6" s="84"/>
-      <c r="AP6" s="84"/>
-      <c r="AQ6" s="84"/>
-      <c r="AR6" s="84"/>
-      <c r="AS6" s="84"/>
-      <c r="AT6" s="84"/>
-      <c r="AU6" s="84"/>
-      <c r="AV6" s="84"/>
-      <c r="AW6" s="84"/>
-      <c r="AX6" s="84"/>
-      <c r="AY6" s="84"/>
-      <c r="AZ6" s="84"/>
-      <c r="BA6" s="84"/>
-      <c r="BB6" s="84"/>
-      <c r="BC6" s="84"/>
-      <c r="BD6" s="85"/>
+      <c r="AH6" s="87"/>
+      <c r="AI6" s="87"/>
+      <c r="AJ6" s="87"/>
+      <c r="AK6" s="87"/>
+      <c r="AL6" s="87"/>
+      <c r="AM6" s="87"/>
+      <c r="AN6" s="87"/>
+      <c r="AO6" s="87"/>
+      <c r="AP6" s="87"/>
+      <c r="AQ6" s="87"/>
+      <c r="AR6" s="87"/>
+      <c r="AS6" s="87"/>
+      <c r="AT6" s="87"/>
+      <c r="AU6" s="87"/>
+      <c r="AV6" s="87"/>
+      <c r="AW6" s="87"/>
+      <c r="AX6" s="87"/>
+      <c r="AY6" s="87"/>
+      <c r="AZ6" s="87"/>
+      <c r="BA6" s="87"/>
+      <c r="BB6" s="87"/>
+      <c r="BC6" s="87"/>
+      <c r="BD6" s="88"/>
     </row>
     <row r="7" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="69"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="39" t="s">
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="39" t="s">
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="40"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="39" t="s">
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AH7" s="84"/>
-      <c r="AI7" s="84"/>
-      <c r="AJ7" s="84"/>
-      <c r="AK7" s="84"/>
-      <c r="AL7" s="84"/>
-      <c r="AM7" s="84"/>
-      <c r="AN7" s="84"/>
-      <c r="AO7" s="84"/>
-      <c r="AP7" s="84"/>
-      <c r="AQ7" s="84"/>
-      <c r="AR7" s="84"/>
-      <c r="AS7" s="84"/>
-      <c r="AT7" s="84"/>
-      <c r="AU7" s="84"/>
-      <c r="AV7" s="84"/>
-      <c r="AW7" s="84"/>
-      <c r="AX7" s="84"/>
-      <c r="AY7" s="84"/>
-      <c r="AZ7" s="84"/>
-      <c r="BA7" s="84"/>
-      <c r="BB7" s="84"/>
-      <c r="BC7" s="84"/>
-      <c r="BD7" s="85"/>
+      <c r="AH7" s="87"/>
+      <c r="AI7" s="87"/>
+      <c r="AJ7" s="87"/>
+      <c r="AK7" s="87"/>
+      <c r="AL7" s="87"/>
+      <c r="AM7" s="87"/>
+      <c r="AN7" s="87"/>
+      <c r="AO7" s="87"/>
+      <c r="AP7" s="87"/>
+      <c r="AQ7" s="87"/>
+      <c r="AR7" s="87"/>
+      <c r="AS7" s="87"/>
+      <c r="AT7" s="87"/>
+      <c r="AU7" s="87"/>
+      <c r="AV7" s="87"/>
+      <c r="AW7" s="87"/>
+      <c r="AX7" s="87"/>
+      <c r="AY7" s="87"/>
+      <c r="AZ7" s="87"/>
+      <c r="BA7" s="87"/>
+      <c r="BB7" s="87"/>
+      <c r="BC7" s="87"/>
+      <c r="BD7" s="88"/>
     </row>
     <row r="8" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="42" t="s">
+      <c r="B8" s="75"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="42" t="s">
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="43"/>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="42" t="s">
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="AH8" s="86"/>
-      <c r="AI8" s="86"/>
-      <c r="AJ8" s="86"/>
-      <c r="AK8" s="86"/>
-      <c r="AL8" s="86"/>
-      <c r="AM8" s="86"/>
-      <c r="AN8" s="86"/>
-      <c r="AO8" s="86"/>
-      <c r="AP8" s="86"/>
-      <c r="AQ8" s="86"/>
-      <c r="AR8" s="86"/>
-      <c r="AS8" s="86"/>
-      <c r="AT8" s="86"/>
-      <c r="AU8" s="86"/>
-      <c r="AV8" s="86"/>
-      <c r="AW8" s="86"/>
-      <c r="AX8" s="86"/>
-      <c r="AY8" s="86"/>
-      <c r="AZ8" s="86"/>
-      <c r="BA8" s="86"/>
-      <c r="BB8" s="86"/>
-      <c r="BC8" s="86"/>
-      <c r="BD8" s="87"/>
+      <c r="AH8" s="89"/>
+      <c r="AI8" s="89"/>
+      <c r="AJ8" s="89"/>
+      <c r="AK8" s="89"/>
+      <c r="AL8" s="89"/>
+      <c r="AM8" s="89"/>
+      <c r="AN8" s="89"/>
+      <c r="AO8" s="89"/>
+      <c r="AP8" s="89"/>
+      <c r="AQ8" s="89"/>
+      <c r="AR8" s="89"/>
+      <c r="AS8" s="89"/>
+      <c r="AT8" s="89"/>
+      <c r="AU8" s="89"/>
+      <c r="AV8" s="89"/>
+      <c r="AW8" s="89"/>
+      <c r="AX8" s="89"/>
+      <c r="AY8" s="89"/>
+      <c r="AZ8" s="89"/>
+      <c r="BA8" s="89"/>
+      <c r="BB8" s="89"/>
+      <c r="BC8" s="89"/>
+      <c r="BD8" s="90"/>
     </row>
     <row r="9" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="46" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="46" t="s">
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="54"/>
-      <c r="AJ9" s="54"/>
-      <c r="AK9" s="54"/>
-      <c r="AL9" s="54"/>
-      <c r="AM9" s="54"/>
-      <c r="AN9" s="54"/>
-      <c r="AO9" s="54"/>
-      <c r="AP9" s="54"/>
-      <c r="AQ9" s="54"/>
-      <c r="AR9" s="54"/>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="54"/>
-      <c r="AW9" s="54"/>
-      <c r="AX9" s="54"/>
-      <c r="AY9" s="54"/>
-      <c r="AZ9" s="54"/>
-      <c r="BA9" s="54"/>
-      <c r="BB9" s="54"/>
-      <c r="BC9" s="54"/>
-      <c r="BD9" s="55"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="51"/>
+      <c r="AG9" s="56"/>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="57"/>
+      <c r="AJ9" s="57"/>
+      <c r="AK9" s="57"/>
+      <c r="AL9" s="57"/>
+      <c r="AM9" s="57"/>
+      <c r="AN9" s="57"/>
+      <c r="AO9" s="57"/>
+      <c r="AP9" s="57"/>
+      <c r="AQ9" s="57"/>
+      <c r="AR9" s="57"/>
+      <c r="AS9" s="57"/>
+      <c r="AT9" s="57"/>
+      <c r="AU9" s="57"/>
+      <c r="AV9" s="57"/>
+      <c r="AW9" s="57"/>
+      <c r="AX9" s="57"/>
+      <c r="AY9" s="57"/>
+      <c r="AZ9" s="57"/>
+      <c r="BA9" s="57"/>
+      <c r="BB9" s="57"/>
+      <c r="BC9" s="57"/>
+      <c r="BD9" s="58"/>
     </row>
     <row r="10" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="49" t="s">
+      <c r="B10" s="78"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="49" t="s">
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="39"/>
-      <c r="AH10" s="84"/>
-      <c r="AI10" s="84"/>
-      <c r="AJ10" s="84"/>
-      <c r="AK10" s="84"/>
-      <c r="AL10" s="84"/>
-      <c r="AM10" s="84"/>
-      <c r="AN10" s="84"/>
-      <c r="AO10" s="84"/>
-      <c r="AP10" s="84"/>
-      <c r="AQ10" s="84"/>
-      <c r="AR10" s="84"/>
-      <c r="AS10" s="84"/>
-      <c r="AT10" s="84"/>
-      <c r="AU10" s="84"/>
-      <c r="AV10" s="84"/>
-      <c r="AW10" s="84"/>
-      <c r="AX10" s="84"/>
-      <c r="AY10" s="84"/>
-      <c r="AZ10" s="84"/>
-      <c r="BA10" s="84"/>
-      <c r="BB10" s="84"/>
-      <c r="BC10" s="84"/>
-      <c r="BD10" s="85"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="43"/>
+      <c r="AE10" s="43"/>
+      <c r="AF10" s="44"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="87"/>
+      <c r="AS10" s="87"/>
+      <c r="AT10" s="87"/>
+      <c r="AU10" s="87"/>
+      <c r="AV10" s="87"/>
+      <c r="AW10" s="87"/>
+      <c r="AX10" s="87"/>
+      <c r="AY10" s="87"/>
+      <c r="AZ10" s="87"/>
+      <c r="BA10" s="87"/>
+      <c r="BB10" s="87"/>
+      <c r="BC10" s="87"/>
+      <c r="BD10" s="88"/>
     </row>
     <row r="11" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="45" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="45" t="s">
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="43"/>
-      <c r="AE11" s="43"/>
-      <c r="AF11" s="44"/>
-      <c r="AG11" s="42"/>
-      <c r="AH11" s="86"/>
-      <c r="AI11" s="86"/>
-      <c r="AJ11" s="86"/>
-      <c r="AK11" s="86"/>
-      <c r="AL11" s="86"/>
-      <c r="AM11" s="86"/>
-      <c r="AN11" s="86"/>
-      <c r="AO11" s="86"/>
-      <c r="AP11" s="86"/>
-      <c r="AQ11" s="86"/>
-      <c r="AR11" s="86"/>
-      <c r="AS11" s="86"/>
-      <c r="AT11" s="86"/>
-      <c r="AU11" s="86"/>
-      <c r="AV11" s="86"/>
-      <c r="AW11" s="86"/>
-      <c r="AX11" s="86"/>
-      <c r="AY11" s="86"/>
-      <c r="AZ11" s="86"/>
-      <c r="BA11" s="86"/>
-      <c r="BB11" s="86"/>
-      <c r="BC11" s="86"/>
-      <c r="BD11" s="87"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="47"/>
+      <c r="AG11" s="45"/>
+      <c r="AH11" s="89"/>
+      <c r="AI11" s="89"/>
+      <c r="AJ11" s="89"/>
+      <c r="AK11" s="89"/>
+      <c r="AL11" s="89"/>
+      <c r="AM11" s="89"/>
+      <c r="AN11" s="89"/>
+      <c r="AO11" s="89"/>
+      <c r="AP11" s="89"/>
+      <c r="AQ11" s="89"/>
+      <c r="AR11" s="89"/>
+      <c r="AS11" s="89"/>
+      <c r="AT11" s="89"/>
+      <c r="AU11" s="89"/>
+      <c r="AV11" s="89"/>
+      <c r="AW11" s="89"/>
+      <c r="AX11" s="89"/>
+      <c r="AY11" s="89"/>
+      <c r="AZ11" s="89"/>
+      <c r="BA11" s="89"/>
+      <c r="BB11" s="89"/>
+      <c r="BC11" s="89"/>
+      <c r="BD11" s="90"/>
     </row>
     <row r="12" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="59" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="46" t="s">
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="47"/>
-      <c r="AD12" s="47"/>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="46" t="s">
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="AH12" s="47"/>
-      <c r="AI12" s="47"/>
-      <c r="AJ12" s="47"/>
-      <c r="AK12" s="47"/>
-      <c r="AL12" s="47"/>
-      <c r="AM12" s="47"/>
-      <c r="AN12" s="47"/>
-      <c r="AO12" s="47"/>
-      <c r="AP12" s="47"/>
-      <c r="AQ12" s="47"/>
-      <c r="AR12" s="47"/>
-      <c r="AS12" s="47"/>
-      <c r="AT12" s="47"/>
-      <c r="AU12" s="47"/>
-      <c r="AV12" s="47"/>
-      <c r="AW12" s="47"/>
-      <c r="AX12" s="47"/>
-      <c r="AY12" s="47"/>
-      <c r="AZ12" s="47"/>
-      <c r="BA12" s="47"/>
-      <c r="BB12" s="47"/>
-      <c r="BC12" s="47"/>
-      <c r="BD12" s="48"/>
+      <c r="AH12" s="50"/>
+      <c r="AI12" s="50"/>
+      <c r="AJ12" s="50"/>
+      <c r="AK12" s="50"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
+      <c r="AP12" s="50"/>
+      <c r="AQ12" s="50"/>
+      <c r="AR12" s="50"/>
+      <c r="AS12" s="50"/>
+      <c r="AT12" s="50"/>
+      <c r="AU12" s="50"/>
+      <c r="AV12" s="50"/>
+      <c r="AW12" s="50"/>
+      <c r="AX12" s="50"/>
+      <c r="AY12" s="50"/>
+      <c r="AZ12" s="50"/>
+      <c r="BA12" s="50"/>
+      <c r="BB12" s="50"/>
+      <c r="BC12" s="50"/>
+      <c r="BD12" s="51"/>
     </row>
     <row r="13" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="75"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="56" t="s">
+      <c r="B13" s="78"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="49" t="s">
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="40"/>
-      <c r="AD13" s="40"/>
-      <c r="AE13" s="40"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="49" t="s">
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="AH13" s="40"/>
-      <c r="AI13" s="40"/>
-      <c r="AJ13" s="40"/>
-      <c r="AK13" s="40"/>
-      <c r="AL13" s="40"/>
-      <c r="AM13" s="40"/>
-      <c r="AN13" s="40"/>
-      <c r="AO13" s="40"/>
-      <c r="AP13" s="40"/>
-      <c r="AQ13" s="40"/>
-      <c r="AR13" s="40"/>
-      <c r="AS13" s="40"/>
-      <c r="AT13" s="40"/>
-      <c r="AU13" s="40"/>
-      <c r="AV13" s="40"/>
-      <c r="AW13" s="40"/>
-      <c r="AX13" s="40"/>
-      <c r="AY13" s="40"/>
-      <c r="AZ13" s="40"/>
-      <c r="BA13" s="40"/>
-      <c r="BB13" s="40"/>
-      <c r="BC13" s="40"/>
-      <c r="BD13" s="41"/>
+      <c r="AH13" s="43"/>
+      <c r="AI13" s="43"/>
+      <c r="AJ13" s="43"/>
+      <c r="AK13" s="43"/>
+      <c r="AL13" s="43"/>
+      <c r="AM13" s="43"/>
+      <c r="AN13" s="43"/>
+      <c r="AO13" s="43"/>
+      <c r="AP13" s="43"/>
+      <c r="AQ13" s="43"/>
+      <c r="AR13" s="43"/>
+      <c r="AS13" s="43"/>
+      <c r="AT13" s="43"/>
+      <c r="AU13" s="43"/>
+      <c r="AV13" s="43"/>
+      <c r="AW13" s="43"/>
+      <c r="AX13" s="43"/>
+      <c r="AY13" s="43"/>
+      <c r="AZ13" s="43"/>
+      <c r="BA13" s="43"/>
+      <c r="BB13" s="43"/>
+      <c r="BC13" s="43"/>
+      <c r="BD13" s="44"/>
     </row>
     <row r="14" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="75"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="56" t="s">
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="49" t="s">
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="40"/>
-      <c r="AE14" s="40"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="49"/>
-      <c r="AH14" s="40"/>
-      <c r="AI14" s="40"/>
-      <c r="AJ14" s="40"/>
-      <c r="AK14" s="40"/>
-      <c r="AL14" s="40"/>
-      <c r="AM14" s="40"/>
-      <c r="AN14" s="40"/>
-      <c r="AO14" s="40"/>
-      <c r="AP14" s="40"/>
-      <c r="AQ14" s="40"/>
-      <c r="AR14" s="40"/>
-      <c r="AS14" s="40"/>
-      <c r="AT14" s="40"/>
-      <c r="AU14" s="40"/>
-      <c r="AV14" s="40"/>
-      <c r="AW14" s="40"/>
-      <c r="AX14" s="40"/>
-      <c r="AY14" s="40"/>
-      <c r="AZ14" s="40"/>
-      <c r="BA14" s="40"/>
-      <c r="BB14" s="40"/>
-      <c r="BC14" s="40"/>
-      <c r="BD14" s="41"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="43"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="52"/>
+      <c r="AH14" s="43"/>
+      <c r="AI14" s="43"/>
+      <c r="AJ14" s="43"/>
+      <c r="AK14" s="43"/>
+      <c r="AL14" s="43"/>
+      <c r="AM14" s="43"/>
+      <c r="AN14" s="43"/>
+      <c r="AO14" s="43"/>
+      <c r="AP14" s="43"/>
+      <c r="AQ14" s="43"/>
+      <c r="AR14" s="43"/>
+      <c r="AS14" s="43"/>
+      <c r="AT14" s="43"/>
+      <c r="AU14" s="43"/>
+      <c r="AV14" s="43"/>
+      <c r="AW14" s="43"/>
+      <c r="AX14" s="43"/>
+      <c r="AY14" s="43"/>
+      <c r="AZ14" s="43"/>
+      <c r="BA14" s="43"/>
+      <c r="BB14" s="43"/>
+      <c r="BC14" s="43"/>
+      <c r="BD14" s="44"/>
     </row>
     <row r="15" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="75"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="56" t="s">
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="49" t="s">
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="49"/>
-      <c r="AH15" s="40"/>
-      <c r="AI15" s="40"/>
-      <c r="AJ15" s="40"/>
-      <c r="AK15" s="40"/>
-      <c r="AL15" s="40"/>
-      <c r="AM15" s="40"/>
-      <c r="AN15" s="40"/>
-      <c r="AO15" s="40"/>
-      <c r="AP15" s="40"/>
-      <c r="AQ15" s="40"/>
-      <c r="AR15" s="40"/>
-      <c r="AS15" s="40"/>
-      <c r="AT15" s="40"/>
-      <c r="AU15" s="40"/>
-      <c r="AV15" s="40"/>
-      <c r="AW15" s="40"/>
-      <c r="AX15" s="40"/>
-      <c r="AY15" s="40"/>
-      <c r="AZ15" s="40"/>
-      <c r="BA15" s="40"/>
-      <c r="BB15" s="40"/>
-      <c r="BC15" s="40"/>
-      <c r="BD15" s="41"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="43"/>
+      <c r="AD15" s="43"/>
+      <c r="AE15" s="43"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="52"/>
+      <c r="AH15" s="43"/>
+      <c r="AI15" s="43"/>
+      <c r="AJ15" s="43"/>
+      <c r="AK15" s="43"/>
+      <c r="AL15" s="43"/>
+      <c r="AM15" s="43"/>
+      <c r="AN15" s="43"/>
+      <c r="AO15" s="43"/>
+      <c r="AP15" s="43"/>
+      <c r="AQ15" s="43"/>
+      <c r="AR15" s="43"/>
+      <c r="AS15" s="43"/>
+      <c r="AT15" s="43"/>
+      <c r="AU15" s="43"/>
+      <c r="AV15" s="43"/>
+      <c r="AW15" s="43"/>
+      <c r="AX15" s="43"/>
+      <c r="AY15" s="43"/>
+      <c r="AZ15" s="43"/>
+      <c r="BA15" s="43"/>
+      <c r="BB15" s="43"/>
+      <c r="BC15" s="43"/>
+      <c r="BD15" s="44"/>
     </row>
     <row r="16" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="75"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="56" t="s">
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="49" t="s">
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="49"/>
-      <c r="AH16" s="40"/>
-      <c r="AI16" s="40"/>
-      <c r="AJ16" s="40"/>
-      <c r="AK16" s="40"/>
-      <c r="AL16" s="40"/>
-      <c r="AM16" s="40"/>
-      <c r="AN16" s="40"/>
-      <c r="AO16" s="40"/>
-      <c r="AP16" s="40"/>
-      <c r="AQ16" s="40"/>
-      <c r="AR16" s="40"/>
-      <c r="AS16" s="40"/>
-      <c r="AT16" s="40"/>
-      <c r="AU16" s="40"/>
-      <c r="AV16" s="40"/>
-      <c r="AW16" s="40"/>
-      <c r="AX16" s="40"/>
-      <c r="AY16" s="40"/>
-      <c r="AZ16" s="40"/>
-      <c r="BA16" s="40"/>
-      <c r="BB16" s="40"/>
-      <c r="BC16" s="40"/>
-      <c r="BD16" s="41"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="43"/>
+      <c r="AC16" s="43"/>
+      <c r="AD16" s="43"/>
+      <c r="AE16" s="43"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="52"/>
+      <c r="AH16" s="43"/>
+      <c r="AI16" s="43"/>
+      <c r="AJ16" s="43"/>
+      <c r="AK16" s="43"/>
+      <c r="AL16" s="43"/>
+      <c r="AM16" s="43"/>
+      <c r="AN16" s="43"/>
+      <c r="AO16" s="43"/>
+      <c r="AP16" s="43"/>
+      <c r="AQ16" s="43"/>
+      <c r="AR16" s="43"/>
+      <c r="AS16" s="43"/>
+      <c r="AT16" s="43"/>
+      <c r="AU16" s="43"/>
+      <c r="AV16" s="43"/>
+      <c r="AW16" s="43"/>
+      <c r="AX16" s="43"/>
+      <c r="AY16" s="43"/>
+      <c r="AZ16" s="43"/>
+      <c r="BA16" s="43"/>
+      <c r="BB16" s="43"/>
+      <c r="BC16" s="43"/>
+      <c r="BD16" s="44"/>
     </row>
     <row r="17" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="56" t="s">
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="49" t="s">
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="49"/>
-      <c r="AH17" s="40"/>
-      <c r="AI17" s="40"/>
-      <c r="AJ17" s="40"/>
-      <c r="AK17" s="40"/>
-      <c r="AL17" s="40"/>
-      <c r="AM17" s="40"/>
-      <c r="AN17" s="40"/>
-      <c r="AO17" s="40"/>
-      <c r="AP17" s="40"/>
-      <c r="AQ17" s="40"/>
-      <c r="AR17" s="40"/>
-      <c r="AS17" s="40"/>
-      <c r="AT17" s="40"/>
-      <c r="AU17" s="40"/>
-      <c r="AV17" s="40"/>
-      <c r="AW17" s="40"/>
-      <c r="AX17" s="40"/>
-      <c r="AY17" s="40"/>
-      <c r="AZ17" s="40"/>
-      <c r="BA17" s="40"/>
-      <c r="BB17" s="40"/>
-      <c r="BC17" s="40"/>
-      <c r="BD17" s="41"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="43"/>
+      <c r="AE17" s="43"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="52"/>
+      <c r="AH17" s="43"/>
+      <c r="AI17" s="43"/>
+      <c r="AJ17" s="43"/>
+      <c r="AK17" s="43"/>
+      <c r="AL17" s="43"/>
+      <c r="AM17" s="43"/>
+      <c r="AN17" s="43"/>
+      <c r="AO17" s="43"/>
+      <c r="AP17" s="43"/>
+      <c r="AQ17" s="43"/>
+      <c r="AR17" s="43"/>
+      <c r="AS17" s="43"/>
+      <c r="AT17" s="43"/>
+      <c r="AU17" s="43"/>
+      <c r="AV17" s="43"/>
+      <c r="AW17" s="43"/>
+      <c r="AX17" s="43"/>
+      <c r="AY17" s="43"/>
+      <c r="AZ17" s="43"/>
+      <c r="BA17" s="43"/>
+      <c r="BB17" s="43"/>
+      <c r="BC17" s="43"/>
+      <c r="BD17" s="44"/>
     </row>
     <row r="18" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="75"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="56" t="s">
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="49" t="s">
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="40"/>
-      <c r="AC18" s="40"/>
-      <c r="AD18" s="40"/>
-      <c r="AE18" s="40"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="49"/>
-      <c r="AH18" s="40"/>
-      <c r="AI18" s="40"/>
-      <c r="AJ18" s="40"/>
-      <c r="AK18" s="40"/>
-      <c r="AL18" s="40"/>
-      <c r="AM18" s="40"/>
-      <c r="AN18" s="40"/>
-      <c r="AO18" s="40"/>
-      <c r="AP18" s="40"/>
-      <c r="AQ18" s="40"/>
-      <c r="AR18" s="40"/>
-      <c r="AS18" s="40"/>
-      <c r="AT18" s="40"/>
-      <c r="AU18" s="40"/>
-      <c r="AV18" s="40"/>
-      <c r="AW18" s="40"/>
-      <c r="AX18" s="40"/>
-      <c r="AY18" s="40"/>
-      <c r="AZ18" s="40"/>
-      <c r="BA18" s="40"/>
-      <c r="BB18" s="40"/>
-      <c r="BC18" s="40"/>
-      <c r="BD18" s="41"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="43"/>
+      <c r="AC18" s="43"/>
+      <c r="AD18" s="43"/>
+      <c r="AE18" s="43"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="52"/>
+      <c r="AH18" s="43"/>
+      <c r="AI18" s="43"/>
+      <c r="AJ18" s="43"/>
+      <c r="AK18" s="43"/>
+      <c r="AL18" s="43"/>
+      <c r="AM18" s="43"/>
+      <c r="AN18" s="43"/>
+      <c r="AO18" s="43"/>
+      <c r="AP18" s="43"/>
+      <c r="AQ18" s="43"/>
+      <c r="AR18" s="43"/>
+      <c r="AS18" s="43"/>
+      <c r="AT18" s="43"/>
+      <c r="AU18" s="43"/>
+      <c r="AV18" s="43"/>
+      <c r="AW18" s="43"/>
+      <c r="AX18" s="43"/>
+      <c r="AY18" s="43"/>
+      <c r="AZ18" s="43"/>
+      <c r="BA18" s="43"/>
+      <c r="BB18" s="43"/>
+      <c r="BC18" s="43"/>
+      <c r="BD18" s="44"/>
     </row>
     <row r="19" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="75"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="56" t="s">
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="49" t="s">
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="40"/>
-      <c r="AD19" s="40"/>
-      <c r="AE19" s="40"/>
-      <c r="AF19" s="41"/>
-      <c r="AG19" s="49"/>
-      <c r="AH19" s="40"/>
-      <c r="AI19" s="40"/>
-      <c r="AJ19" s="40"/>
-      <c r="AK19" s="40"/>
-      <c r="AL19" s="40"/>
-      <c r="AM19" s="40"/>
-      <c r="AN19" s="40"/>
-      <c r="AO19" s="40"/>
-      <c r="AP19" s="40"/>
-      <c r="AQ19" s="40"/>
-      <c r="AR19" s="40"/>
-      <c r="AS19" s="40"/>
-      <c r="AT19" s="40"/>
-      <c r="AU19" s="40"/>
-      <c r="AV19" s="40"/>
-      <c r="AW19" s="40"/>
-      <c r="AX19" s="40"/>
-      <c r="AY19" s="40"/>
-      <c r="AZ19" s="40"/>
-      <c r="BA19" s="40"/>
-      <c r="BB19" s="40"/>
-      <c r="BC19" s="40"/>
-      <c r="BD19" s="41"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="43"/>
+      <c r="AC19" s="43"/>
+      <c r="AD19" s="43"/>
+      <c r="AE19" s="43"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="52"/>
+      <c r="AH19" s="43"/>
+      <c r="AI19" s="43"/>
+      <c r="AJ19" s="43"/>
+      <c r="AK19" s="43"/>
+      <c r="AL19" s="43"/>
+      <c r="AM19" s="43"/>
+      <c r="AN19" s="43"/>
+      <c r="AO19" s="43"/>
+      <c r="AP19" s="43"/>
+      <c r="AQ19" s="43"/>
+      <c r="AR19" s="43"/>
+      <c r="AS19" s="43"/>
+      <c r="AT19" s="43"/>
+      <c r="AU19" s="43"/>
+      <c r="AV19" s="43"/>
+      <c r="AW19" s="43"/>
+      <c r="AX19" s="43"/>
+      <c r="AY19" s="43"/>
+      <c r="AZ19" s="43"/>
+      <c r="BA19" s="43"/>
+      <c r="BB19" s="43"/>
+      <c r="BC19" s="43"/>
+      <c r="BD19" s="44"/>
     </row>
     <row r="20" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="75"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="43"/>
+      <c r="AC20" s="43"/>
+      <c r="AD20" s="43"/>
+      <c r="AE20" s="43"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="24"/>
+      <c r="AI20" s="24"/>
+      <c r="AJ20" s="24"/>
+      <c r="AK20" s="24"/>
+      <c r="AL20" s="24"/>
+      <c r="AM20" s="24"/>
+      <c r="AN20" s="24"/>
+      <c r="AO20" s="24"/>
+      <c r="AP20" s="24"/>
+      <c r="AQ20" s="24"/>
+      <c r="AR20" s="24"/>
+      <c r="AS20" s="24"/>
+      <c r="AT20" s="24"/>
+      <c r="AU20" s="24"/>
+      <c r="AV20" s="24"/>
+      <c r="AW20" s="24"/>
+      <c r="AX20" s="24"/>
+      <c r="AY20" s="24"/>
+      <c r="AZ20" s="24"/>
+      <c r="BA20" s="24"/>
+      <c r="BB20" s="24"/>
+      <c r="BC20" s="24"/>
+      <c r="BD20" s="25"/>
+    </row>
+    <row r="21" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="78"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="80"/>
-      <c r="S20" s="49" t="s">
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="82"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="41"/>
-      <c r="AG20" s="49"/>
-      <c r="AH20" s="40"/>
-      <c r="AI20" s="40"/>
-      <c r="AJ20" s="40"/>
-      <c r="AK20" s="40"/>
-      <c r="AL20" s="40"/>
-      <c r="AM20" s="40"/>
-      <c r="AN20" s="40"/>
-      <c r="AO20" s="40"/>
-      <c r="AP20" s="40"/>
-      <c r="AQ20" s="40"/>
-      <c r="AR20" s="40"/>
-      <c r="AS20" s="40"/>
-      <c r="AT20" s="40"/>
-      <c r="AU20" s="40"/>
-      <c r="AV20" s="40"/>
-      <c r="AW20" s="40"/>
-      <c r="AX20" s="40"/>
-      <c r="AY20" s="40"/>
-      <c r="AZ20" s="40"/>
-      <c r="BA20" s="40"/>
-      <c r="BB20" s="40"/>
-      <c r="BC20" s="40"/>
-      <c r="BD20" s="41"/>
-    </row>
-    <row r="21" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="75"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="78" t="s">
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="43"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="43"/>
+      <c r="AI21" s="43"/>
+      <c r="AJ21" s="43"/>
+      <c r="AK21" s="43"/>
+      <c r="AL21" s="43"/>
+      <c r="AM21" s="43"/>
+      <c r="AN21" s="43"/>
+      <c r="AO21" s="43"/>
+      <c r="AP21" s="43"/>
+      <c r="AQ21" s="43"/>
+      <c r="AR21" s="43"/>
+      <c r="AS21" s="43"/>
+      <c r="AT21" s="43"/>
+      <c r="AU21" s="43"/>
+      <c r="AV21" s="43"/>
+      <c r="AW21" s="43"/>
+      <c r="AX21" s="43"/>
+      <c r="AY21" s="43"/>
+      <c r="AZ21" s="43"/>
+      <c r="BA21" s="43"/>
+      <c r="BB21" s="43"/>
+      <c r="BC21" s="43"/>
+      <c r="BD21" s="44"/>
+    </row>
+    <row r="22" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="81" t="s">
         <v>44</v>
-      </c>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="40"/>
-      <c r="AE21" s="40"/>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="49"/>
-      <c r="AH21" s="40"/>
-      <c r="AI21" s="40"/>
-      <c r="AJ21" s="40"/>
-      <c r="AK21" s="40"/>
-      <c r="AL21" s="40"/>
-      <c r="AM21" s="40"/>
-      <c r="AN21" s="40"/>
-      <c r="AO21" s="40"/>
-      <c r="AP21" s="40"/>
-      <c r="AQ21" s="40"/>
-      <c r="AR21" s="40"/>
-      <c r="AS21" s="40"/>
-      <c r="AT21" s="40"/>
-      <c r="AU21" s="40"/>
-      <c r="AV21" s="40"/>
-      <c r="AW21" s="40"/>
-      <c r="AX21" s="40"/>
-      <c r="AY21" s="40"/>
-      <c r="AZ21" s="40"/>
-      <c r="BA21" s="40"/>
-      <c r="BB21" s="40"/>
-      <c r="BC21" s="40"/>
-      <c r="BD21" s="41"/>
-    </row>
-    <row r="22" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="81" t="s">
-        <v>41</v>
       </c>
       <c r="G22" s="82"/>
       <c r="H22" s="82"/>
@@ -3612,8 +3646,8 @@
       <c r="P22" s="82"/>
       <c r="Q22" s="82"/>
       <c r="R22" s="83"/>
-      <c r="S22" s="45" t="s">
-        <v>47</v>
+      <c r="S22" s="52" t="s">
+        <v>45</v>
       </c>
       <c r="T22" s="43"/>
       <c r="U22" s="43"/>
@@ -3628,7 +3662,7 @@
       <c r="AD22" s="43"/>
       <c r="AE22" s="43"/>
       <c r="AF22" s="44"/>
-      <c r="AG22" s="45"/>
+      <c r="AG22" s="52"/>
       <c r="AH22" s="43"/>
       <c r="AI22" s="43"/>
       <c r="AJ22" s="43"/>
@@ -3653,75 +3687,77 @@
       <c r="BC22" s="43"/>
       <c r="BD22" s="44"/>
     </row>
-    <row r="23" spans="2:56" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="33" t="s">
+    <row r="23" spans="2:56" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="47"/>
+      <c r="AG23" s="48"/>
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="46"/>
+      <c r="AJ23" s="46"/>
+      <c r="AK23" s="46"/>
+      <c r="AL23" s="46"/>
+      <c r="AM23" s="46"/>
+      <c r="AN23" s="46"/>
+      <c r="AO23" s="46"/>
+      <c r="AP23" s="46"/>
+      <c r="AQ23" s="46"/>
+      <c r="AR23" s="46"/>
+      <c r="AS23" s="46"/>
+      <c r="AT23" s="46"/>
+      <c r="AU23" s="46"/>
+      <c r="AV23" s="46"/>
+      <c r="AW23" s="46"/>
+      <c r="AX23" s="46"/>
+      <c r="AY23" s="46"/>
+      <c r="AZ23" s="46"/>
+      <c r="BA23" s="46"/>
+      <c r="BB23" s="46"/>
+      <c r="BC23" s="46"/>
+      <c r="BD23" s="47"/>
+    </row>
+    <row r="24" spans="2:56" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="25"/>
-      <c r="AH23" s="26"/>
-      <c r="AI23" s="26"/>
-      <c r="AJ23" s="26"/>
-      <c r="AK23" s="26"/>
-      <c r="AL23" s="26"/>
-      <c r="AM23" s="26"/>
-      <c r="AN23" s="26"/>
-      <c r="AO23" s="26"/>
-      <c r="AP23" s="26"/>
-      <c r="AQ23" s="26"/>
-      <c r="AR23" s="26"/>
-      <c r="AS23" s="26"/>
-      <c r="AT23" s="26"/>
-      <c r="AU23" s="26"/>
-      <c r="AV23" s="26"/>
-      <c r="AW23" s="26"/>
-      <c r="AX23" s="26"/>
-      <c r="AY23" s="26"/>
-      <c r="AZ23" s="26"/>
-      <c r="BA23" s="26"/>
-      <c r="BB23" s="26"/>
-      <c r="BC23" s="26"/>
-      <c r="BD23" s="27"/>
-    </row>
-    <row r="24" spans="2:56" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="36"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
       <c r="E24" s="38"/>
-      <c r="F24" s="28"/>
+      <c r="F24" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
       <c r="I24" s="29"/>
@@ -3734,7 +3770,9 @@
       <c r="P24" s="29"/>
       <c r="Q24" s="29"/>
       <c r="R24" s="30"/>
-      <c r="S24" s="28"/>
+      <c r="S24" s="28" t="s">
+        <v>40</v>
+      </c>
       <c r="T24" s="29"/>
       <c r="U24" s="29"/>
       <c r="V24" s="29"/>
@@ -3773,73 +3811,73 @@
       <c r="BC24" s="29"/>
       <c r="BD24" s="30"/>
     </row>
-    <row r="25" spans="2:56" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="23" t="s">
+    <row r="25" spans="2:56" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="32"/>
+      <c r="AD25" s="32"/>
+      <c r="AE25" s="32"/>
+      <c r="AF25" s="33"/>
+      <c r="AG25" s="31"/>
+      <c r="AH25" s="32"/>
+      <c r="AI25" s="32"/>
+      <c r="AJ25" s="32"/>
+      <c r="AK25" s="32"/>
+      <c r="AL25" s="32"/>
+      <c r="AM25" s="32"/>
+      <c r="AN25" s="32"/>
+      <c r="AO25" s="32"/>
+      <c r="AP25" s="32"/>
+      <c r="AQ25" s="32"/>
+      <c r="AR25" s="32"/>
+      <c r="AS25" s="32"/>
+      <c r="AT25" s="32"/>
+      <c r="AU25" s="32"/>
+      <c r="AV25" s="32"/>
+      <c r="AW25" s="32"/>
+      <c r="AX25" s="32"/>
+      <c r="AY25" s="32"/>
+      <c r="AZ25" s="32"/>
+      <c r="BA25" s="32"/>
+      <c r="BB25" s="32"/>
+      <c r="BC25" s="32"/>
+      <c r="BD25" s="33"/>
+    </row>
+    <row r="26" spans="2:56" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="25" t="s">
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="31"/>
-      <c r="AG25" s="31"/>
-      <c r="AH25" s="31"/>
-      <c r="AI25" s="31"/>
-      <c r="AJ25" s="31"/>
-      <c r="AK25" s="31"/>
-      <c r="AL25" s="31"/>
-      <c r="AM25" s="31"/>
-      <c r="AN25" s="31"/>
-      <c r="AO25" s="31"/>
-      <c r="AP25" s="31"/>
-      <c r="AQ25" s="31"/>
-      <c r="AR25" s="31"/>
-      <c r="AS25" s="31"/>
-      <c r="AT25" s="31"/>
-      <c r="AU25" s="31"/>
-      <c r="AV25" s="31"/>
-      <c r="AW25" s="31"/>
-      <c r="AX25" s="31"/>
-      <c r="AY25" s="31"/>
-      <c r="AZ25" s="31"/>
-      <c r="BA25" s="31"/>
-      <c r="BB25" s="31"/>
-      <c r="BC25" s="31"/>
-      <c r="BD25" s="31"/>
-    </row>
-    <row r="26" spans="2:56" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="28"/>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
@@ -3852,67 +3890,124 @@
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="30"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
-      <c r="AJ26" s="32"/>
-      <c r="AK26" s="32"/>
-      <c r="AL26" s="32"/>
-      <c r="AM26" s="32"/>
-      <c r="AN26" s="32"/>
-      <c r="AO26" s="32"/>
-      <c r="AP26" s="32"/>
-      <c r="AQ26" s="32"/>
-      <c r="AR26" s="32"/>
-      <c r="AS26" s="32"/>
-      <c r="AT26" s="32"/>
-      <c r="AU26" s="32"/>
-      <c r="AV26" s="32"/>
-      <c r="AW26" s="32"/>
-      <c r="AX26" s="32"/>
-      <c r="AY26" s="32"/>
-      <c r="AZ26" s="32"/>
-      <c r="BA26" s="32"/>
-      <c r="BB26" s="32"/>
-      <c r="BC26" s="32"/>
-      <c r="BD26" s="32"/>
-    </row>
-    <row r="31" spans="2:56" x14ac:dyDescent="0.15">
-      <c r="F31" s="2" t="s">
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="34"/>
+      <c r="AH26" s="34"/>
+      <c r="AI26" s="34"/>
+      <c r="AJ26" s="34"/>
+      <c r="AK26" s="34"/>
+      <c r="AL26" s="34"/>
+      <c r="AM26" s="34"/>
+      <c r="AN26" s="34"/>
+      <c r="AO26" s="34"/>
+      <c r="AP26" s="34"/>
+      <c r="AQ26" s="34"/>
+      <c r="AR26" s="34"/>
+      <c r="AS26" s="34"/>
+      <c r="AT26" s="34"/>
+      <c r="AU26" s="34"/>
+      <c r="AV26" s="34"/>
+      <c r="AW26" s="34"/>
+      <c r="AX26" s="34"/>
+      <c r="AY26" s="34"/>
+      <c r="AZ26" s="34"/>
+      <c r="BA26" s="34"/>
+      <c r="BB26" s="34"/>
+      <c r="BC26" s="34"/>
+      <c r="BD26" s="34"/>
+    </row>
+    <row r="27" spans="2:56" s="2" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="35"/>
+      <c r="AE27" s="35"/>
+      <c r="AF27" s="35"/>
+      <c r="AG27" s="35"/>
+      <c r="AH27" s="35"/>
+      <c r="AI27" s="35"/>
+      <c r="AJ27" s="35"/>
+      <c r="AK27" s="35"/>
+      <c r="AL27" s="35"/>
+      <c r="AM27" s="35"/>
+      <c r="AN27" s="35"/>
+      <c r="AO27" s="35"/>
+      <c r="AP27" s="35"/>
+      <c r="AQ27" s="35"/>
+      <c r="AR27" s="35"/>
+      <c r="AS27" s="35"/>
+      <c r="AT27" s="35"/>
+      <c r="AU27" s="35"/>
+      <c r="AV27" s="35"/>
+      <c r="AW27" s="35"/>
+      <c r="AX27" s="35"/>
+      <c r="AY27" s="35"/>
+      <c r="AZ27" s="35"/>
+      <c r="BA27" s="35"/>
+      <c r="BB27" s="35"/>
+      <c r="BC27" s="35"/>
+      <c r="BD27" s="35"/>
+    </row>
+    <row r="32" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="S31" s="2" t="s">
+      <c r="S32" s="2" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="AG22:BD22"/>
+  <mergeCells count="77">
+    <mergeCell ref="AG23:BD23"/>
     <mergeCell ref="AG8:BD8"/>
     <mergeCell ref="AG9:BD9"/>
     <mergeCell ref="AG11:BD11"/>
     <mergeCell ref="S17:AF17"/>
     <mergeCell ref="S18:AF18"/>
     <mergeCell ref="S19:AF19"/>
-    <mergeCell ref="S20:AF20"/>
+    <mergeCell ref="S21:AF21"/>
     <mergeCell ref="S10:AF10"/>
     <mergeCell ref="S11:AF11"/>
-    <mergeCell ref="AG20:BD20"/>
     <mergeCell ref="AG21:BD21"/>
+    <mergeCell ref="AG22:BD22"/>
     <mergeCell ref="AG15:BD15"/>
     <mergeCell ref="AG16:BD16"/>
     <mergeCell ref="AG17:BD17"/>
@@ -3929,14 +4024,15 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E8"/>
     <mergeCell ref="B9:E11"/>
-    <mergeCell ref="B12:E22"/>
+    <mergeCell ref="B12:E23"/>
     <mergeCell ref="F2:R2"/>
     <mergeCell ref="F17:R17"/>
     <mergeCell ref="F18:R18"/>
     <mergeCell ref="F19:R19"/>
+    <mergeCell ref="F21:R21"/>
+    <mergeCell ref="F23:R23"/>
+    <mergeCell ref="F22:R22"/>
     <mergeCell ref="F20:R20"/>
-    <mergeCell ref="F22:R22"/>
-    <mergeCell ref="F21:R21"/>
     <mergeCell ref="S2:AF2"/>
     <mergeCell ref="AG2:BD2"/>
     <mergeCell ref="AG3:BD3"/>
@@ -3956,9 +4052,9 @@
     <mergeCell ref="S4:AF4"/>
     <mergeCell ref="F8:R8"/>
     <mergeCell ref="S8:AF8"/>
+    <mergeCell ref="S23:AF23"/>
+    <mergeCell ref="S12:AF12"/>
     <mergeCell ref="S22:AF22"/>
-    <mergeCell ref="S12:AF12"/>
-    <mergeCell ref="S21:AF21"/>
     <mergeCell ref="S13:AF13"/>
     <mergeCell ref="S14:AF14"/>
     <mergeCell ref="S15:AF15"/>
@@ -3968,14 +4064,15 @@
     <mergeCell ref="S5:AF5"/>
     <mergeCell ref="F7:R7"/>
     <mergeCell ref="S7:AF7"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="F25:R26"/>
-    <mergeCell ref="S25:AF26"/>
-    <mergeCell ref="AG25:BD26"/>
-    <mergeCell ref="B23:E24"/>
-    <mergeCell ref="F23:R24"/>
-    <mergeCell ref="S23:AF24"/>
-    <mergeCell ref="AG23:BD24"/>
+    <mergeCell ref="S20:AF20"/>
+    <mergeCell ref="B26:E27"/>
+    <mergeCell ref="F26:R27"/>
+    <mergeCell ref="S26:AF27"/>
+    <mergeCell ref="AG26:BD27"/>
+    <mergeCell ref="B24:E25"/>
+    <mergeCell ref="F24:R25"/>
+    <mergeCell ref="S24:AF25"/>
+    <mergeCell ref="AG24:BD25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3995,13 +4092,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4047,7 +4141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -4185,13 +4279,13 @@
       <c r="B2" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="89"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="92"/>
     </row>
     <row r="3" spans="2:7" ht="21" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="16" t="s">
@@ -4314,13 +4408,13 @@
       <c r="B12" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="89"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="92"/>
     </row>
     <row r="13" spans="2:7" ht="21" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="16" t="s">
@@ -4471,13 +4565,13 @@
       <c r="B24" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="89"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="92"/>
     </row>
     <row r="25" spans="2:7" ht="21" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="16" t="s">
@@ -4628,13 +4722,13 @@
       <c r="B36" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="88" t="s">
+      <c r="C36" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="89"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="92"/>
     </row>
     <row r="37" spans="2:7" ht="21" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="16" t="s">
@@ -4807,13 +4901,13 @@
       <c r="B49" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="88" t="s">
+      <c r="C49" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="89"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="91"/>
+      <c r="G49" s="92"/>
     </row>
     <row r="50" spans="2:7" ht="21" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B50" s="16" t="s">
@@ -4874,13 +4968,13 @@
       <c r="B55" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="88" t="s">
+      <c r="C55" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="89"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="91"/>
+      <c r="F55" s="91"/>
+      <c r="G55" s="92"/>
     </row>
     <row r="56" spans="2:7" ht="21" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B56" s="16" t="s">
@@ -5083,13 +5177,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5135,13 +5226,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5182,13 +5270,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AJ17" sqref="AJ17"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5286,13 +5371,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA40" sqref="AA40"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5328,13 +5410,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z30" sqref="Z30"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
